--- a/Class_Assignment_Results.xlsx
+++ b/Class_Assignment_Results.xlsx
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시205</t>
+          <t>예시308</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -509,14 +509,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시601</t>
+          <t>예시208</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -526,14 +526,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>X</t>
@@ -546,7 +546,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시304</t>
+          <t>예시404</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -620,14 +620,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시403</t>
+          <t>예시606</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -652,19 +652,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시502</t>
+          <t>예시501</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -701,7 +701,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시603</t>
+          <t>예시408</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -731,14 +731,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시202</t>
+          <t>예시304</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -768,14 +768,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시303</t>
+          <t>예시602</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -805,14 +805,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시405</t>
+          <t>예시507</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -842,14 +842,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시218</t>
+          <t>예시615</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -879,14 +879,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시311</t>
+          <t>예시220</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -916,14 +916,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시415</t>
+          <t>예시515</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -933,12 +933,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -953,14 +953,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시511</t>
+          <t>예시616</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -970,12 +970,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -990,14 +990,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시312</t>
+          <t>예시418</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1027,14 +1027,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시420</t>
+          <t>예시416</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1071,7 +1071,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시518</t>
+          <t>예시318</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1101,14 +1101,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시211</t>
+          <t>예시311</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1138,14 +1138,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시313</t>
+          <t>예시622</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1175,14 +1175,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시421</t>
+          <t>예시420</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1219,7 +1219,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시614</t>
+          <t>예시512</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1249,14 +1249,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시414</t>
+          <t>예시121</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1286,14 +1286,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시618</t>
+          <t>예시322</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시206</t>
+          <t>예시202</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1423,7 +1423,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시207</t>
+          <t>예시209</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1460,7 +1460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시208</t>
+          <t>예시210</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시209</t>
+          <t>예시406</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1527,14 +1527,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시210</t>
+          <t>예시506</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1564,14 +1564,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시301</t>
+          <t>예시306</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시302</t>
+          <t>예시203</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1638,19 +1638,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시212</t>
+          <t>예시603</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1675,14 +1675,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시213</t>
+          <t>예시219</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1692,12 +1692,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1719,7 +1719,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시214</t>
+          <t>예시513</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1744,19 +1744,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시215</t>
+          <t>예시114</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1786,14 +1786,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시216</t>
+          <t>예시112</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1803,14 +1803,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>X</t>
@@ -1818,19 +1818,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시217</t>
+          <t>예시312</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1840,14 +1840,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>X</t>
@@ -1860,14 +1860,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시219</t>
+          <t>예시317</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1897,14 +1897,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시220</t>
+          <t>예시415</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시222</t>
+          <t>예시522</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1988,12 +1988,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2008,14 +2008,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시223</t>
+          <t>예시115</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시104</t>
+          <t>예시321</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시110</t>
+          <t>예시405</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2156,14 +2156,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시111</t>
+          <t>예시222</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2173,12 +2173,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2193,14 +2193,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시118</t>
+          <t>예시617</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시305</t>
+          <t>예시610</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2340,12 +2340,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시306</t>
+          <t>예시607</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2397,14 +2397,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시307</t>
+          <t>예시407</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2434,14 +2434,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시308</t>
+          <t>예시402</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2451,12 +2451,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2471,14 +2471,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시309</t>
+          <t>예시307</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2552,7 +2552,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시402</t>
+          <t>예시108</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2562,12 +2562,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2582,14 +2582,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시314</t>
+          <t>예시213</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2619,14 +2619,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시315</t>
+          <t>예시623</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2656,14 +2656,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시316</t>
+          <t>예시313</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2673,12 +2673,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2700,7 +2700,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시317</t>
+          <t>예시516</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2730,14 +2730,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시318</t>
+          <t>예시518</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2767,14 +2767,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시319</t>
+          <t>예시223</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2784,12 +2784,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2804,14 +2804,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시320</t>
+          <t>예시414</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2841,14 +2841,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시321</t>
+          <t>예시519</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2878,14 +2878,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시322</t>
+          <t>예시214</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2910,34 +2910,34 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시323</t>
+          <t>예시201</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2952,14 +2952,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시201</t>
+          <t>예시608</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2969,12 +2969,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2989,29 +2989,29 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시203</t>
+          <t>예시514</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3026,14 +3026,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시112</t>
+          <t>예시619</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3058,19 +3058,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시115</t>
+          <t>예시212</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시404</t>
+          <t>예시609</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3247,14 +3247,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>X</t>
@@ -3267,14 +3267,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시406</t>
+          <t>예시410</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3311,7 +3311,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시407</t>
+          <t>예시207</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시408</t>
+          <t>예시508</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3378,14 +3378,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시409</t>
+          <t>예시509</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3415,14 +3415,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시410</t>
+          <t>예시206</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3452,14 +3452,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시501</t>
+          <t>예시403</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3489,14 +3489,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시411</t>
+          <t>예시316</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3521,19 +3521,19 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시412</t>
+          <t>예시520</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3563,14 +3563,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시413</t>
+          <t>예시621</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3580,12 +3580,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3600,14 +3600,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시416</t>
+          <t>예시218</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3617,12 +3617,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3637,14 +3637,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시417</t>
+          <t>예시314</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3654,12 +3654,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3674,14 +3674,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시418</t>
+          <t>예시423</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3691,12 +3691,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3718,7 +3718,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시419</t>
+          <t>예시417</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3728,12 +3728,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3755,7 +3755,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시422</t>
+          <t>예시412</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3792,7 +3792,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시423</t>
+          <t>예시421</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3829,12 +3829,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시107</t>
+          <t>예시117</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3866,22 +3866,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시204</t>
+          <t>예시320</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3896,14 +3896,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시113</t>
+          <t>예시211</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3933,19 +3933,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시116</t>
+          <t>예시303</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3970,19 +3970,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시120</t>
+          <t>예시204</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4007,14 +4007,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시122</t>
+          <t>예시422</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4144,7 +4144,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시503</t>
+          <t>예시107</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4174,14 +4174,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시504</t>
+          <t>예시109</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4211,14 +4211,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시505</t>
+          <t>예시302</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -4248,14 +4248,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시506</t>
+          <t>예시110</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4265,12 +4265,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4285,14 +4285,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시507</t>
+          <t>예시504</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4329,7 +4329,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시508</t>
+          <t>예시605</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4339,17 +4339,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4359,14 +4359,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시509</t>
+          <t>예시305</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4376,12 +4376,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -4396,29 +4396,29 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시510</t>
+          <t>예시111</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4428,19 +4428,19 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시512</t>
+          <t>예시517</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4450,12 +4450,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -4477,7 +4477,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시513</t>
+          <t>예시120</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4507,14 +4507,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시514</t>
+          <t>예시323</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4544,14 +4544,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시515</t>
+          <t>예시215</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -4581,14 +4581,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시516</t>
+          <t>예시419</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4598,12 +4598,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4618,14 +4618,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시517</t>
+          <t>예시611</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4655,14 +4655,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시519</t>
+          <t>예시315</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4672,12 +4672,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4692,14 +4692,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시520</t>
+          <t>예시511</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4736,7 +4736,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시521</t>
+          <t>예시216</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4746,12 +4746,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4766,14 +4766,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시522</t>
+          <t>예시217</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4783,12 +4783,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4803,14 +4803,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시523</t>
+          <t>예시618</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4840,14 +4840,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시108</t>
+          <t>예시510</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4872,29 +4872,29 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시114</t>
+          <t>예시301</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4914,14 +4914,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시117</t>
+          <t>예시319</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4931,12 +4931,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5014,7 +5014,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시602</t>
+          <t>예시104</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5044,14 +5044,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시604</t>
+          <t>예시309</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -5081,14 +5081,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시605</t>
+          <t>예시604</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5098,12 +5098,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -5125,7 +5125,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시606</t>
+          <t>예시502</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -5150,19 +5150,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시607</t>
+          <t>예시205</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5172,12 +5172,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -5192,14 +5192,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시608</t>
+          <t>예시503</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5229,14 +5229,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시609</t>
+          <t>예시601</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5246,12 +5246,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -5273,7 +5273,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시610</t>
+          <t>예시409</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5283,14 +5283,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>X</t>
@@ -5303,14 +5303,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시611</t>
+          <t>예시113</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5320,12 +5320,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -5340,14 +5340,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시612</t>
+          <t>예시122</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5357,12 +5357,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -5377,14 +5377,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시613</t>
+          <t>예시411</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5414,14 +5414,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시615</t>
+          <t>예시413</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5451,14 +5451,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시616</t>
+          <t>예시614</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -5495,7 +5495,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시617</t>
+          <t>예시123</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -5525,14 +5525,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시619</t>
+          <t>예시118</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -5562,14 +5562,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시620</t>
+          <t>예시612</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -5606,22 +5606,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시621</t>
+          <t>예시101</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -5636,29 +5636,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시622</t>
+          <t>예시505</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -5673,14 +5673,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시623</t>
+          <t>예시523</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5690,17 +5690,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5710,24 +5710,24 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시101</t>
+          <t>예시521</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5747,29 +5747,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시109</t>
+          <t>예시620</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5784,14 +5784,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시121</t>
+          <t>예시116</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5806,12 +5806,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5828,7 +5828,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시123</t>
+          <t>예시613</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5838,12 +5838,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5970,25 +5970,25 @@
         <v>4</v>
       </c>
       <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>9</v>
       </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6010,28 +6010,28 @@
         <v>175</v>
       </c>
       <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
         <v>5</v>
       </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
         <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
         <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6053,28 +6053,28 @@
         <v>175</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
         <v>7</v>
       </c>
-      <c r="J4" t="n">
-        <v>10</v>
-      </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6139,28 +6139,28 @@
         <v>174</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
         <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -6185,25 +6185,25 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Class_Assignment_Results.xlsx
+++ b/Class_Assignment_Results.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>비고</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>전 학년 반</t>
         </is>
       </c>
@@ -479,12 +484,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시308</t>
+          <t>예시116</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,7 +499,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -507,21 +512,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시208</t>
+          <t>예시512</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +537,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -544,26 +550,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시102</t>
+          <t>예시317</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -583,29 +590,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>알레르기</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시404</t>
+          <t>예시319</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -618,26 +630,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시606</t>
+          <t>예시211</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -652,34 +665,35 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>6</t>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시501</t>
+          <t>예시223</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -692,21 +706,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시408</t>
+          <t>예시412</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -716,7 +731,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -730,6 +745,11 @@
         </is>
       </c>
       <c r="G8" t="inlineStr">
+        <is>
+          <t>공격적</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -738,7 +758,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시304</t>
+          <t>예시404</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -748,7 +768,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -766,16 +786,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시602</t>
+          <t>예시603</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -785,12 +806,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -803,7 +824,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -812,7 +834,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시507</t>
+          <t>예시209</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -822,12 +844,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -840,21 +862,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시615</t>
+          <t>예시607</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -877,7 +900,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -886,22 +910,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시220</t>
+          <t>예시105</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -916,29 +940,34 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>집중 못함</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시515</t>
+          <t>예시501</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -951,7 +980,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -960,22 +990,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시616</t>
+          <t>예시207</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -988,26 +1018,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시418</t>
+          <t>예시310</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1025,31 +1056,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시416</t>
+          <t>예시305</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1062,31 +1094,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시318</t>
+          <t>예시110</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1099,16 +1132,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시311</t>
+          <t>예시313</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1118,12 +1152,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1136,7 +1170,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1145,7 +1180,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시622</t>
+          <t>예시212</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1155,12 +1190,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1173,16 +1208,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시420</t>
+          <t>예시415</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1210,7 +1246,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -1219,7 +1256,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시512</t>
+          <t>예시422</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1234,7 +1271,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1247,16 +1284,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시121</t>
+          <t>예시616</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1266,7 +1304,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1276,7 +1314,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1284,16 +1322,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시322</t>
+          <t>예시517</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1303,12 +1342,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1321,9 +1360,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1379,6 +1419,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>비고</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>전 학년 반</t>
         </is>
       </c>
@@ -1386,7 +1431,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시202</t>
+          <t>예시102</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1396,12 +1441,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1414,16 +1459,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시209</t>
+          <t>예시202</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1433,12 +1479,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1452,6 +1498,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>수업 방해</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1460,7 +1511,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시210</t>
+          <t>예시206</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1488,7 +1539,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1497,7 +1549,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시406</t>
+          <t>예시604</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1507,12 +1559,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1525,16 +1577,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시506</t>
+          <t>예시106</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1549,7 +1602,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1562,16 +1615,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시306</t>
+          <t>예시502</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1581,12 +1635,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1599,16 +1653,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시203</t>
+          <t>예시609</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1618,12 +1673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1636,31 +1691,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시603</t>
+          <t>예시112</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1670,19 +1726,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>6</t>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시219</t>
+          <t>예시121</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1692,17 +1749,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1710,16 +1767,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시513</t>
+          <t>예시623</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1729,17 +1787,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1747,16 +1805,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시114</t>
+          <t>예시515</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1766,12 +1825,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1784,16 +1843,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시112</t>
+          <t>예시323</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1808,7 +1868,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1818,19 +1878,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시312</t>
+          <t>예시217</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1840,12 +1901,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1858,16 +1919,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시317</t>
+          <t>예시618</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1882,7 +1944,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1895,16 +1957,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시415</t>
+          <t>예시614</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1914,14 +1977,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>X</t>
@@ -1932,16 +1995,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시221</t>
+          <t>예시311</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1969,16 +2033,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시522</t>
+          <t>예시419</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1988,7 +2053,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2006,9 +2071,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2109,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2052,7 +2119,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시321</t>
+          <t>예시315</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2062,14 +2129,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>X</t>
@@ -2080,7 +2147,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2089,7 +2157,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시106</t>
+          <t>예시210</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2099,7 +2167,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2117,16 +2185,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시405</t>
+          <t>예시509</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2136,12 +2205,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2154,16 +2223,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시222</t>
+          <t>예시122</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2173,14 +2243,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>X</t>
@@ -2191,31 +2261,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시617</t>
+          <t>예시104</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2228,9 +2299,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2286,6 +2358,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>비고</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>전 학년 반</t>
         </is>
       </c>
@@ -2321,7 +2398,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2330,7 +2408,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시610</t>
+          <t>예시208</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2340,14 +2418,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>X</t>
@@ -2358,16 +2436,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시607</t>
+          <t>예시602</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2377,12 +2456,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2395,7 +2474,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -2404,7 +2484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시407</t>
+          <t>예시205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2419,7 +2499,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2432,16 +2512,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시402</t>
+          <t>예시405</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2456,7 +2537,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2469,7 +2550,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2478,7 +2560,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시307</t>
+          <t>예시605</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2493,7 +2575,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2506,16 +2588,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시310</t>
+          <t>예시306</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2525,7 +2608,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2543,7 +2626,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2552,7 +2636,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시108</t>
+          <t>예시308</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2567,7 +2651,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2580,16 +2664,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시213</t>
+          <t>예시312</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2604,7 +2689,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2617,16 +2702,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시623</t>
+          <t>예시613</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2636,7 +2722,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2646,7 +2732,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2654,7 +2740,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -2663,7 +2750,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시313</t>
+          <t>예시413</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2673,7 +2760,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2691,16 +2778,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시516</t>
+          <t>예시215</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2710,12 +2798,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2728,16 +2816,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시518</t>
+          <t>예시617</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2747,7 +2836,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2765,16 +2854,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시223</t>
+          <t>예시619</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2784,12 +2874,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2802,16 +2892,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시414</t>
+          <t>예시516</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2826,7 +2917,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2839,16 +2930,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시519</t>
+          <t>예시518</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2863,7 +2955,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2876,7 +2968,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2885,7 +2978,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시214</t>
+          <t>예시318</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2895,12 +2988,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2910,36 +3003,37 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시201</t>
+          <t>예시421</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>X</t>
@@ -2950,31 +3044,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시608</t>
+          <t>예시612</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2987,7 +3082,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -2996,12 +3092,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시514</t>
+          <t>예시201</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3011,7 +3107,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3024,31 +3120,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시619</t>
+          <t>예시507</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3061,16 +3158,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시212</t>
+          <t>예시622</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3080,12 +3178,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3098,16 +3196,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시119</t>
+          <t>예시214</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3117,12 +3216,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3132,12 +3231,13 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3152,7 +3252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3193,6 +3293,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>비고</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>전 학년 반</t>
         </is>
       </c>
@@ -3228,7 +3333,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -3237,7 +3343,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시609</t>
+          <t>예시505</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3247,7 +3353,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3265,16 +3371,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시410</t>
+          <t>예시304</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3284,14 +3391,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>X</t>
@@ -3302,16 +3409,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시207</t>
+          <t>예시506</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3321,12 +3429,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3339,16 +3447,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시508</t>
+          <t>예시606</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3358,34 +3467,35 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시509</t>
+          <t>예시402</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3395,12 +3505,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3413,16 +3523,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시206</t>
+          <t>예시410</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3432,7 +3543,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3450,16 +3561,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시403</t>
+          <t>예시406</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3469,12 +3581,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3487,7 +3599,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -3496,7 +3609,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시316</t>
+          <t>예시417</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3506,12 +3619,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3521,19 +3634,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시520</t>
+          <t>예시514</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3543,12 +3657,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3561,7 +3675,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -3570,7 +3685,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시621</t>
+          <t>예시123</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3580,12 +3695,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3598,16 +3713,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시218</t>
+          <t>예시316</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3617,12 +3733,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3632,19 +3748,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시314</t>
+          <t>예시216</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3654,7 +3771,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3672,16 +3789,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시423</t>
+          <t>예시523</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3691,12 +3809,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3709,16 +3827,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시417</t>
+          <t>예시521</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3733,7 +3852,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3748,14 +3867,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>도벽</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시412</t>
+          <t>예시511</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3765,12 +3889,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3783,16 +3907,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시421</t>
+          <t>예시119</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3802,7 +3927,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3820,16 +3945,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시117</t>
+          <t>예시423</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3839,12 +3965,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3857,16 +3983,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시320</t>
+          <t>예시213</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3876,7 +4003,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3894,16 +4021,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시211</t>
+          <t>예시218</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3913,12 +4041,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3931,7 +4059,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -3940,7 +4069,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시303</t>
+          <t>예시109</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3950,12 +4079,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3968,26 +4097,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시204</t>
+          <t>예시118</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4005,21 +4135,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시422</t>
+          <t>예시307</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4029,7 +4160,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4042,9 +4173,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4100,6 +4232,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>비고</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>전 학년 반</t>
         </is>
       </c>
@@ -4107,7 +4244,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시105</t>
+          <t>예시302</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4117,12 +4254,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4135,16 +4272,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시107</t>
+          <t>예시408</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4172,16 +4310,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시109</t>
+          <t>예시407</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4191,7 +4330,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4209,16 +4348,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시302</t>
+          <t>예시503</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4233,7 +4373,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -4246,16 +4386,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시110</t>
+          <t>예시508</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4265,7 +4406,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4275,7 +4416,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4283,16 +4424,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시504</t>
+          <t>예시403</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4302,12 +4444,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4320,16 +4462,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시605</t>
+          <t>예시608</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4339,12 +4482,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -4357,7 +4500,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -4366,7 +4510,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시305</t>
+          <t>예시510</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4381,7 +4525,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -4391,19 +4535,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시111</t>
+          <t>예시222</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4413,12 +4558,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4431,16 +4576,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시517</t>
+          <t>예시320</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4450,7 +4596,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4468,16 +4614,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시120</t>
+          <t>예시113</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4492,7 +4639,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -4505,7 +4652,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4514,7 +4662,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시323</t>
+          <t>예시520</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4524,12 +4672,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -4542,16 +4690,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시215</t>
+          <t>예시221</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4561,12 +4710,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -4579,7 +4728,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -4588,7 +4738,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시419</t>
+          <t>예시321</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4598,7 +4748,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4616,16 +4766,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시611</t>
+          <t>예시522</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4635,12 +4786,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4653,16 +4804,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시315</t>
+          <t>예시117</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4690,16 +4842,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시511</t>
+          <t>예시220</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4709,12 +4862,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4727,16 +4880,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시216</t>
+          <t>예시416</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4764,16 +4918,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시217</t>
+          <t>예시620</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4788,7 +4943,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4801,16 +4956,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시618</t>
+          <t>예시513</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4820,12 +4976,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4838,16 +4994,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시510</t>
+          <t>예시203</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4857,12 +5014,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4872,19 +5029,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시301</t>
+          <t>예시409</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4899,7 +5057,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4912,16 +5070,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시319</t>
+          <t>예시322</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4936,7 +5095,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4949,7 +5108,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4966,7 +5126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5007,6 +5167,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>비고</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>전 학년 반</t>
         </is>
       </c>
@@ -5014,7 +5179,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시104</t>
+          <t>예시601</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5024,12 +5189,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -5042,16 +5207,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시309</t>
+          <t>예시108</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5061,7 +5227,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5079,16 +5245,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시604</t>
+          <t>예시309</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5098,12 +5265,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -5116,16 +5283,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시502</t>
+          <t>예시204</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5140,7 +5308,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -5153,16 +5321,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시205</t>
+          <t>예시610</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5172,12 +5341,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -5190,16 +5359,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시503</t>
+          <t>예시301</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5209,12 +5379,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -5227,16 +5397,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시601</t>
+          <t>예시107</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5246,12 +5417,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -5264,16 +5435,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시409</t>
+          <t>예시303</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5283,12 +5455,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5301,16 +5473,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시113</t>
+          <t>예시519</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5320,12 +5493,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -5338,16 +5511,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시122</t>
+          <t>예시314</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5357,12 +5531,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -5375,16 +5549,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시411</t>
+          <t>예시420</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5394,12 +5569,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -5412,7 +5587,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -5421,7 +5597,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시413</t>
+          <t>예시611</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5431,7 +5607,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5451,14 +5627,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>소극적</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시614</t>
+          <t>예시120</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5468,12 +5649,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -5486,16 +5667,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시123</t>
+          <t>예시615</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5505,7 +5687,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -5523,16 +5705,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시118</t>
+          <t>예시621</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5542,12 +5725,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -5560,16 +5743,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시612</t>
+          <t>예시114</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5579,7 +5763,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -5597,31 +5781,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시101</t>
+          <t>예시411</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -5634,31 +5819,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시505</t>
+          <t>예시414</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -5671,16 +5857,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시523</t>
+          <t>예시418</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5695,7 +5882,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5708,16 +5895,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시521</t>
+          <t>예시219</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5727,14 +5915,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>X</t>
@@ -5745,31 +5933,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시620</t>
+          <t>예시101</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5782,26 +5971,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시116</t>
+          <t>예시504</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -5819,16 +6009,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시613</t>
+          <t>예시111</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5838,12 +6029,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5856,9 +6047,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5967,28 +6159,28 @@
         <v>175</v>
       </c>
       <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
         <v>4</v>
       </c>
-      <c r="G2" t="n">
-        <v>3</v>
-      </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
         <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6010,25 +6202,25 @@
         <v>175</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K3" t="n">
         <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -6053,28 +6245,28 @@
         <v>175</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K4" t="n">
         <v>7</v>
       </c>
-      <c r="K4" t="n">
-        <v>12</v>
-      </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -6093,28 +6285,28 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>12</v>
       </c>
       <c r="K5" t="n">
         <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
@@ -6139,16 +6331,16 @@
         <v>174</v>
       </c>
       <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
@@ -6160,7 +6352,7 @@
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -6179,16 +6371,16 @@
         <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -6197,13 +6389,13 @@
         <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Class_Assignment_Results.xlsx
+++ b/Class_Assignment_Results.xlsx
@@ -484,22 +484,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시116</t>
+          <t>예시102</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -522,22 +522,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시512</t>
+          <t>예시304</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -553,29 +553,29 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시317</t>
+          <t>예시505</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -588,26 +588,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>알레르기</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시319</t>
+          <t>예시501</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -633,24 +629,24 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시211</t>
+          <t>예시605</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -671,29 +667,29 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시223</t>
+          <t>예시403</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -709,29 +705,29 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시412</t>
+          <t>예시404</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -744,11 +740,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>공격적</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>4</t>
@@ -758,22 +750,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시404</t>
+          <t>예시116</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -789,29 +781,29 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시603</t>
+          <t>예시415</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -827,29 +819,29 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시209</t>
+          <t>예시418</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -865,24 +857,24 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시607</t>
+          <t>예시611</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -900,7 +892,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>소극적</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>6</t>
@@ -910,12 +906,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시105</t>
+          <t>예시113</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -925,7 +921,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -938,11 +934,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>집중 못함</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>1</t>
@@ -952,22 +944,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시501</t>
+          <t>예시118</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -983,24 +975,24 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시207</t>
+          <t>예시514</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1021,29 +1013,29 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시310</t>
+          <t>예시417</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1059,24 +1051,24 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시305</t>
+          <t>예시122</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1097,29 +1089,29 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시110</t>
+          <t>예시111</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1142,7 +1134,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시313</t>
+          <t>예시120</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1152,7 +1144,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1173,14 +1165,14 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시212</t>
+          <t>예시519</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1195,7 +1187,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1211,14 +1203,14 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시415</t>
+          <t>예시112</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1228,14 +1220,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>X</t>
@@ -1243,35 +1235,35 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시422</t>
+          <t>예시608</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1287,19 +1279,19 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시616</t>
+          <t>예시410</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1309,7 +1301,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1325,24 +1317,24 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시517</t>
+          <t>예시506</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1431,7 +1423,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시102</t>
+          <t>예시202</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1441,12 +1433,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1459,17 +1451,21 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>수업 방해</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시202</t>
+          <t>예시107</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1479,7 +1475,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1497,21 +1493,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>수업 방해</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시206</t>
+          <t>예시402</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1521,12 +1513,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1542,14 +1534,14 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시604</t>
+          <t>예시601</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1559,7 +1551,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1587,7 +1579,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시106</t>
+          <t>예시602</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1597,12 +1589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1618,14 +1610,14 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시502</t>
+          <t>예시204</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1640,7 +1632,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1656,7 +1648,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1693,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시112</t>
+          <t>예시219</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1711,12 +1703,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1726,20 +1718,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시121</t>
+          <t>예시319</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1749,7 +1741,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1759,7 +1751,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1770,14 +1762,14 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시623</t>
+          <t>예시322</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1787,17 +1779,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1808,14 +1800,14 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시515</t>
+          <t>예시616</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1825,12 +1817,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1846,14 +1838,14 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시323</t>
+          <t>예시512</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1884,14 +1876,14 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시217</t>
+          <t>예시214</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1916,7 +1908,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1929,7 +1921,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시618</t>
+          <t>예시115</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1939,7 +1931,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1960,14 +1952,14 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시614</t>
+          <t>예시412</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1977,12 +1969,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1995,17 +1987,21 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>공격적</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시311</t>
+          <t>예시615</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2015,12 +2011,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2036,14 +2032,14 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시419</t>
+          <t>예시618</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2058,7 +2054,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2074,14 +2070,14 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시115</t>
+          <t>예시314</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2096,7 +2092,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2112,29 +2108,29 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시315</t>
+          <t>예시306</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2157,7 +2153,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시210</t>
+          <t>예시603</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2167,12 +2163,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2188,14 +2184,14 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시509</t>
+          <t>예시108</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2210,7 +2206,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2226,14 +2222,14 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시122</t>
+          <t>예시421</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2243,12 +2239,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>A</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2264,34 +2260,34 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시104</t>
+          <t>예시623</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2302,7 +2298,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2404,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시208</t>
+          <t>예시503</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2418,12 +2414,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2439,14 +2435,14 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시602</t>
+          <t>예시309</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2456,12 +2452,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2477,14 +2473,14 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시205</t>
+          <t>예시610</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2494,12 +2490,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2515,14 +2511,14 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시405</t>
+          <t>예시408</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2532,7 +2528,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2560,7 +2556,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시605</t>
+          <t>예시104</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2570,7 +2566,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2591,14 +2587,14 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시306</t>
+          <t>예시504</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2608,12 +2604,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2629,29 +2625,29 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시308</t>
+          <t>예시119</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2667,14 +2663,14 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시312</t>
+          <t>예시217</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2684,12 +2680,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2705,14 +2701,14 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시613</t>
+          <t>예시313</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2722,12 +2718,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2743,14 +2739,14 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시413</t>
+          <t>예시223</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2760,12 +2756,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2781,14 +2777,14 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시215</t>
+          <t>예시621</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2803,7 +2799,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2819,14 +2815,14 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시617</t>
+          <t>예시419</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2836,7 +2832,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2857,14 +2853,14 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시619</t>
+          <t>예시312</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2874,12 +2870,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2895,14 +2891,14 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시516</t>
+          <t>예시622</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2912,7 +2908,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2933,14 +2929,14 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시518</t>
+          <t>예시317</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2968,17 +2964,21 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>알레르기</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시318</t>
+          <t>예시316</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2988,12 +2988,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -3016,7 +3016,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시421</t>
+          <t>예시422</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3054,22 +3054,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시612</t>
+          <t>예시201</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3085,14 +3085,14 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시201</t>
+          <t>예시208</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3102,12 +3102,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3130,17 +3130,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시507</t>
+          <t>예시215</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3161,14 +3161,14 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시622</t>
+          <t>예시212</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3178,12 +3178,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3199,19 +3199,19 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시214</t>
+          <t>예시604</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3231,13 +3231,13 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시505</t>
+          <t>예시407</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3353,12 +3353,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3374,14 +3374,14 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시304</t>
+          <t>예시210</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3391,12 +3391,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3412,14 +3412,14 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시506</t>
+          <t>예시302</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3450,14 +3450,14 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시606</t>
+          <t>예시205</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3482,20 +3482,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시402</t>
+          <t>예시207</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3526,14 +3526,14 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시410</t>
+          <t>예시507</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3564,14 +3564,14 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시406</t>
+          <t>예시109</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3602,14 +3602,14 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시417</t>
+          <t>예시420</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3619,12 +3619,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3647,7 +3647,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시514</t>
+          <t>예시613</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3678,14 +3678,14 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시123</t>
+          <t>예시416</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3695,12 +3695,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3716,14 +3716,14 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시316</t>
+          <t>예시513</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3748,20 +3748,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시216</t>
+          <t>예시516</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3771,12 +3771,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3792,14 +3792,14 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시523</t>
+          <t>예시318</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3830,14 +3830,14 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시521</t>
+          <t>예시411</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3847,14 +3847,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>X</t>
@@ -3865,21 +3865,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>도벽</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시511</t>
+          <t>예시218</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3894,7 +3890,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3910,14 +3906,14 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시119</t>
+          <t>예시213</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3932,7 +3928,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3948,14 +3944,14 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시423</t>
+          <t>예시221</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3965,12 +3961,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>D</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3986,24 +3982,24 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시213</t>
+          <t>예시301</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4024,19 +4020,19 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시218</t>
+          <t>예시409</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4046,7 +4042,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4062,24 +4058,24 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시109</t>
+          <t>예시614</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4100,14 +4096,14 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시118</t>
+          <t>예시612</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4117,12 +4113,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4138,29 +4134,29 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시307</t>
+          <t>예시211</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4176,7 +4172,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4240,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시302</t>
+          <t>예시105</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4254,12 +4250,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4272,17 +4268,21 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>집중 못함</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시408</t>
+          <t>예시405</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4320,7 +4320,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시407</t>
+          <t>예시502</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4351,14 +4351,14 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시503</t>
+          <t>예시305</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -4389,14 +4389,14 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시508</t>
+          <t>예시303</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4427,14 +4427,14 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시403</t>
+          <t>예시310</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4465,14 +4465,14 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시608</t>
+          <t>예시606</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시510</t>
+          <t>예시508</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4530,12 +4530,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -4548,7 +4548,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시222</t>
+          <t>예시121</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4558,17 +4558,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4579,14 +4579,14 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시320</t>
+          <t>예시423</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -4617,14 +4617,14 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시113</t>
+          <t>예시123</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -4662,7 +4662,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시520</t>
+          <t>예시518</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -4700,7 +4700,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시221</t>
+          <t>예시620</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4710,12 +4710,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -4731,14 +4731,14 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시321</t>
+          <t>예시517</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4769,14 +4769,14 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시522</t>
+          <t>예시511</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4786,12 +4786,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4814,7 +4814,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시117</t>
+          <t>예시216</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4824,12 +4824,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4845,14 +4845,14 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시220</t>
+          <t>예시315</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4883,14 +4883,14 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시416</t>
+          <t>예시222</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4900,12 +4900,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4921,14 +4921,14 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시620</t>
+          <t>예시522</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4959,29 +4959,29 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시513</t>
+          <t>예시308</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4997,29 +4997,29 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시203</t>
+          <t>예시619</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5035,29 +5035,29 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시409</t>
+          <t>예시617</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5073,19 +5073,19 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시322</t>
+          <t>예시106</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5111,7 +5111,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시601</t>
+          <t>예시209</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5189,12 +5189,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -5210,14 +5210,14 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시108</t>
+          <t>예시110</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5255,7 +5255,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시309</t>
+          <t>예시203</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -5286,14 +5286,14 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시204</t>
+          <t>예시510</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5318,20 +5318,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시610</t>
+          <t>예시307</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5362,14 +5362,14 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시301</t>
+          <t>예시406</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5379,12 +5379,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -5400,14 +5400,14 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시107</t>
+          <t>예시206</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5438,19 +5438,19 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시303</t>
+          <t>예시323</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5483,7 +5483,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시519</t>
+          <t>예시414</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -5514,14 +5514,14 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시314</t>
+          <t>예시117</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -5552,14 +5552,14 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시420</t>
+          <t>예시521</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -5587,17 +5587,21 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>도벽</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시611</t>
+          <t>예시220</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5607,14 +5611,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>X</t>
@@ -5625,21 +5629,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>소극적</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시120</t>
+          <t>예시523</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5649,12 +5649,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -5670,14 +5670,14 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시615</t>
+          <t>예시413</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -5708,14 +5708,14 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시621</t>
+          <t>예시515</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5725,12 +5725,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -5746,14 +5746,14 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시114</t>
+          <t>예시311</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -5784,14 +5784,14 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시411</t>
+          <t>예시320</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5801,12 +5801,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -5822,29 +5822,29 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시414</t>
+          <t>예시101</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -5860,29 +5860,29 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시418</t>
+          <t>예시509</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5898,14 +5898,14 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시219</t>
+          <t>예시520</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5936,29 +5936,29 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시101</t>
+          <t>예시114</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5981,12 +5981,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시504</t>
+          <t>예시321</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -6012,19 +6012,19 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시111</t>
+          <t>예시607</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -6050,7 +6050,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6159,25 +6159,25 @@
         <v>175</v>
       </c>
       <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
         <v>4</v>
       </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7</v>
-      </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
@@ -6202,28 +6202,28 @@
         <v>175</v>
       </c>
       <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
         <v>4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6245,28 +6245,28 @@
         <v>175</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6291,25 +6291,25 @@
         <v>4</v>
       </c>
       <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
         <v>7</v>
       </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -6331,28 +6331,28 @@
         <v>174</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -6374,28 +6374,28 @@
         <v>174</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Class_Assignment_Results.xlsx
+++ b/Class_Assignment_Results.xlsx
@@ -12,8 +12,7 @@
     <sheet name="Class_3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Class_4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Class_5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Class_6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Summary" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,20 +461,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>체력 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>다문화 여부 (O/X)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>복지대상 여부 (O/X)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>비고</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>전 학년 반</t>
         </is>
@@ -484,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시102</t>
+          <t>예시101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -494,17 +498,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -512,8 +516,13 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -522,27 +531,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시304</t>
+          <t>예시515</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -550,17 +559,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시505</t>
+          <t>예시601</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -575,12 +589,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -588,17 +602,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시501</t>
+          <t>예시507</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -608,7 +627,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -618,7 +637,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -626,8 +645,13 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -636,7 +660,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시605</t>
+          <t>예시207</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -651,12 +675,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -664,17 +688,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시403</t>
+          <t>예시504</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -684,17 +713,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -702,17 +731,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시404</t>
+          <t>예시505</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -722,7 +756,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -732,7 +766,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -740,37 +774,42 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시116</t>
+          <t>예시608</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -778,22 +817,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시415</t>
+          <t>예시110</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -803,12 +847,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -816,17 +860,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시418</t>
+          <t>예시120</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -836,7 +885,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -846,7 +895,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -854,17 +903,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시611</t>
+          <t>예시121</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -874,39 +928,40 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>소극적</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>6</t>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시113</t>
+          <t>예시217</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -916,17 +971,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -934,27 +989,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시118</t>
+          <t>예시405</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -964,7 +1024,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -972,17 +1032,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시514</t>
+          <t>예시416</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -997,12 +1062,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1010,17 +1075,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시417</t>
+          <t>예시114</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1035,12 +1105,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1048,17 +1118,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시122</t>
+          <t>예시115</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1068,17 +1143,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1086,8 +1161,13 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1096,7 +1176,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시111</t>
+          <t>예시319</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1116,7 +1196,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1124,17 +1204,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시120</t>
+          <t>예시612</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1144,17 +1229,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1162,17 +1247,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시519</t>
+          <t>예시614</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1182,17 +1272,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1200,17 +1290,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시112</t>
+          <t>예시118</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1220,26 +1315,31 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1248,17 +1348,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시608</t>
+          <t>예시418</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1268,7 +1368,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1276,22 +1376,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시410</t>
+          <t>예시321</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1301,12 +1406,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1314,48 +1419,277 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시506</t>
+          <t>예시317</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>알레르기</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>예시619</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>예시602</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>남</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>예시301</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>예시304</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>예시315</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,20 +1735,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>체력 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>다문화 여부 (O/X)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>복지대상 여부 (O/X)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>비고</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>전 학년 반</t>
         </is>
@@ -1423,7 +1762,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시202</t>
+          <t>예시102</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1433,17 +1772,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1453,19 +1792,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>수업 방해</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시107</t>
+          <t>예시408</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1485,7 +1825,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1493,17 +1833,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시402</t>
+          <t>예시209</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1513,17 +1858,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1531,17 +1876,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시601</t>
+          <t>예시310</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1551,17 +1901,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1569,27 +1919,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시602</t>
+          <t>예시212</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1599,7 +1954,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1607,17 +1962,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시204</t>
+          <t>예시306</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1627,7 +1987,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1637,7 +1997,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1645,17 +2005,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시609</t>
+          <t>예시503</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1665,17 +2030,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1683,17 +2048,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시219</t>
+          <t>예시620</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1703,17 +2073,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1721,17 +2091,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시319</t>
+          <t>예시413</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1741,17 +2116,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1759,17 +2134,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시322</t>
+          <t>예시513</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1779,7 +2159,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1789,7 +2169,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1797,17 +2177,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시616</t>
+          <t>예시318</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1817,7 +2202,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1827,7 +2212,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1835,17 +2220,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시512</t>
+          <t>예시320</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1855,17 +2245,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1873,17 +2263,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시214</t>
+          <t>예시622</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1893,7 +2288,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1903,25 +2298,30 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시115</t>
+          <t>예시623</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1936,30 +2336,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시412</t>
+          <t>예시414</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1969,7 +2374,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1979,7 +2384,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1989,10 +2394,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>공격적</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2001,12 +2407,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시615</t>
+          <t>예시203</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2016,12 +2422,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2029,22 +2435,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시618</t>
+          <t>예시501</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2054,12 +2465,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2067,27 +2478,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시314</t>
+          <t>예시604</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2097,7 +2513,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2105,17 +2521,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시306</t>
+          <t>예시202</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2125,7 +2546,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2135,7 +2556,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2143,37 +2564,46 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>수업 방해</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시603</t>
+          <t>예시323</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2181,37 +2611,42 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시108</t>
+          <t>예시211</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2219,17 +2654,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시421</t>
+          <t>예시219</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2239,17 +2679,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2257,17 +2697,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시623</t>
+          <t>예시312</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2277,7 +2722,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2287,7 +2732,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2295,10 +2740,230 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>예시423</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>예시220</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>예시512</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>예시302</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>예시206</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2344,20 +3009,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>체력 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>다문화 여부 (O/X)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>복지대상 여부 (O/X)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>비고</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>전 학년 반</t>
         </is>
@@ -2386,7 +3056,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2394,8 +3064,13 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2404,7 +3079,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시503</t>
+          <t>예시309</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2414,7 +3089,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2424,7 +3099,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2432,17 +3107,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시309</t>
+          <t>예시510</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2452,7 +3132,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2462,7 +3142,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2470,17 +3150,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시610</t>
+          <t>예시410</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2490,7 +3175,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2500,7 +3185,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2508,17 +3193,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시408</t>
+          <t>예시107</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2538,7 +3228,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2546,37 +3236,42 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시104</t>
+          <t>예시216</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2584,37 +3279,42 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시504</t>
+          <t>예시517</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2622,8 +3322,13 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2632,7 +3337,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시119</t>
+          <t>예시411</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2642,17 +3347,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2660,17 +3365,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시217</t>
+          <t>예시519</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2680,7 +3390,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2690,7 +3400,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2698,17 +3408,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시313</t>
+          <t>예시116</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2718,17 +3433,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2736,17 +3451,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시223</t>
+          <t>예시311</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2756,17 +3476,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2774,17 +3494,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시621</t>
+          <t>예시523</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2799,12 +3524,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2812,17 +3537,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시419</t>
+          <t>예시616</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2832,7 +3562,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2842,7 +3572,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2850,17 +3580,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시312</t>
+          <t>예시412</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2870,17 +3605,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2888,37 +3623,46 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>공격적</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시622</t>
+          <t>예시201</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2926,27 +3670,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시317</t>
+          <t>예시509</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2956,7 +3705,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2966,62 +3715,68 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>알레르기</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시316</t>
+          <t>예시606</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시422</t>
+          <t>예시605</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3031,12 +3786,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3044,37 +3799,42 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시201</t>
+          <t>예시112</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3082,37 +3842,42 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시208</t>
+          <t>예시313</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3120,17 +3885,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시215</t>
+          <t>예시514</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3140,17 +3910,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3158,37 +3928,42 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시212</t>
+          <t>예시404</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3196,17 +3971,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시604</t>
+          <t>예시204</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3216,17 +3996,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3234,10 +4014,234 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>예시210</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>예시611</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>소극적</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>예시420</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>예시215</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>예시419</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3252,7 +4256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3283,20 +4287,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>체력 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>다문화 여부 (O/X)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>복지대상 여부 (O/X)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>비고</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>전 학년 반</t>
         </is>
@@ -3325,7 +4334,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3333,8 +4342,13 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -3343,7 +4357,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시407</t>
+          <t>예시508</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3353,35 +4367,40 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시210</t>
+          <t>예시502</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3396,12 +4415,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3409,17 +4428,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시302</t>
+          <t>예시406</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3429,17 +4453,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3447,17 +4471,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시205</t>
+          <t>예시609</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3477,7 +4506,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3485,17 +4514,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시207</t>
+          <t>예시610</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3505,7 +4539,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3515,7 +4549,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -3523,17 +4557,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시507</t>
+          <t>예시403</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3543,17 +4582,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3561,17 +4600,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시109</t>
+          <t>예시308</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3581,17 +4625,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3599,37 +4643,42 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시420</t>
+          <t>예시205</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3637,37 +4686,42 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시613</t>
+          <t>예시208</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -3675,17 +4729,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시416</t>
+          <t>예시516</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3695,17 +4754,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -3713,17 +4772,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시513</t>
+          <t>예시511</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3733,7 +4797,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3743,7 +4807,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3751,8 +4815,13 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -3761,7 +4830,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시516</t>
+          <t>예시521</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3781,7 +4850,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3789,8 +4858,17 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
+        <is>
+          <t>도벽</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -3799,7 +4877,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시318</t>
+          <t>예시111</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3809,7 +4887,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3819,7 +4897,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3827,17 +4905,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시411</t>
+          <t>예시117</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3847,7 +4930,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3857,7 +4940,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3865,17 +4948,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시218</t>
+          <t>예시621</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3895,7 +4983,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3903,17 +4991,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시213</t>
+          <t>예시314</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3923,7 +5016,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3933,7 +5026,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3941,17 +5034,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시221</t>
+          <t>예시417</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3961,7 +5059,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3971,7 +5069,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3979,27 +5077,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시301</t>
+          <t>예시522</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4009,7 +5112,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4017,22 +5120,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시409</t>
+          <t>예시322</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4042,30 +5150,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시614</t>
+          <t>예시316</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4075,7 +5188,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4085,7 +5198,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4093,17 +5206,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시612</t>
+          <t>예시421</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4113,17 +5231,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4131,48 +5249,230 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시211</t>
+          <t>예시407</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>예시213</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>예시520</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>예시214</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>예시104</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4187,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4218,20 +5518,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>체력 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>다문화 여부 (O/X)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>복지대상 여부 (O/X)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>비고</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>전 학년 반</t>
         </is>
@@ -4260,7 +5565,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -4270,10 +5575,15 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>집중 못함</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4282,7 +5592,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시405</t>
+          <t>예시106</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4302,7 +5612,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4310,17 +5620,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시502</t>
+          <t>예시307</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4335,12 +5650,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4348,17 +5663,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시305</t>
+          <t>예시108</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4368,17 +5688,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4386,17 +5706,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시303</t>
+          <t>예시506</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4406,17 +5731,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4424,17 +5749,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>예시310</t>
+          <t>예시409</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4444,17 +5774,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4462,17 +5792,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>예시606</t>
+          <t>예시603</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4482,26 +5817,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -4510,7 +5850,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예시508</t>
+          <t>예시607</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4530,7 +5870,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4538,22 +5878,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>예시121</t>
+          <t>예시303</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4563,12 +5908,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4576,17 +5921,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>예시423</t>
+          <t>예시613</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4596,17 +5946,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4614,17 +5964,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>예시123</t>
+          <t>예시422</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4639,12 +5994,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4652,17 +6007,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>예시518</t>
+          <t>예시222</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4672,17 +6032,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4690,17 +6050,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>예시620</t>
+          <t>예시119</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4710,17 +6075,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4728,17 +6093,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>예시517</t>
+          <t>예시221</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4748,35 +6118,40 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>예시511</t>
+          <t>예시415</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4786,17 +6161,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4804,17 +6179,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>예시216</t>
+          <t>예시123</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4824,35 +6204,40 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>예시315</t>
+          <t>예시218</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4862,7 +6247,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4872,7 +6257,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4880,17 +6265,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>예시222</t>
+          <t>예시618</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4900,17 +6290,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4918,17 +6308,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>예시522</t>
+          <t>예시113</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4943,12 +6338,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4956,27 +6351,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>예시308</t>
+          <t>예시518</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4986,7 +6386,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4994,17 +6394,22 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>예시619</t>
+          <t>예시615</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5014,7 +6419,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5024,7 +6429,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5032,8 +6437,13 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -5042,7 +6452,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>예시617</t>
+          <t>예시223</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5052,17 +6462,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5070,48 +6480,230 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>예시106</t>
+          <t>예시617</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>예시305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>남</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>예시122</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>예시109</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>예시402</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5126,7 +6718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5137,1265 +6729,283 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>학생 이름</t>
+          <t>반</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>성별</t>
+          <t>총 학생 수</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>성적 등급 (A/B/C/D)</t>
+          <t>남학생 수</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>생활지도 어려움 등급 (A/B/C/D)</t>
+          <t>여학생 수</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>다문화 여부 (O/X)</t>
+          <t>학급 총점</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>복지대상 여부 (O/X)</t>
+          <t>성적 A</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>비고</t>
+          <t>생활지도 어려움 A</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>전 학년 반</t>
+          <t>성적 B</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>생활지도 어려움 B</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>성적 C</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>생활지도 어려움 C</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>성적 D</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>생활지도 어려움 D</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>예시209</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Class_1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E2" t="n">
+        <v>493</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>예시110</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Class_2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>493</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>예시203</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>Class_3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>494</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>예시510</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>Class_4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>476</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>예시307</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>예시406</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>예시206</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>예시323</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>예시414</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>예시117</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>예시521</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>도벽</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>예시220</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>예시523</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>예시413</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>예시515</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>예시311</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>예시320</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>예시101</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>예시509</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>예시520</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>예시114</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>예시321</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>예시607</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>반</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>총 학생 수</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>남학생 수</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>여학생 수</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>학급 총점</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>성적 A</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>생활지도 어려움 A</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>성적 B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>생활지도 어려움 B</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>성적 C</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>생활지도 어려움 C</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>성적 D</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>생활지도 어려움 D</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Class_1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>23</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E2" t="n">
-        <v>175</v>
-      </c>
-      <c r="F2" t="n">
+          <t>Class_5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>27</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>476</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
         <v>6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Class_2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>23</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>175</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Class_3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>23</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13</v>
-      </c>
-      <c r="E4" t="n">
-        <v>175</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Class_4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>23</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>175</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Class_5</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>23</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13</v>
-      </c>
-      <c r="E6" t="n">
-        <v>174</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Class_6</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>23</v>
-      </c>
-      <c r="C7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" t="n">
-        <v>13</v>
-      </c>
-      <c r="E7" t="n">
-        <v>174</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10</v>
-      </c>
-      <c r="K7" t="n">
-        <v>10</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Class_Assignment_Results.xlsx
+++ b/Class_Assignment_Results.xlsx
@@ -546,14 +546,14 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시415</t>
+          <t>예시111</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -563,17 +563,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -589,20 +589,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시313</t>
+          <t>예시119</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -612,12 +612,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -638,20 +638,20 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시119</t>
+          <t>예시317</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -684,23 +684,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>알레르기</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시613</t>
+          <t>예시416</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -715,7 +719,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -736,20 +740,20 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>11</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시511</t>
+          <t>예시311</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -759,12 +763,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -785,20 +789,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시413</t>
+          <t>예시223</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -808,17 +812,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -834,20 +838,20 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시617</t>
+          <t>예시222</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -857,17 +861,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -883,7 +887,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -892,11 +896,11 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시623</t>
+          <t>예시612</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -906,22 +910,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -938,34 +942,34 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시504</t>
+          <t>예시216</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -981,25 +985,25 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시204</t>
+          <t>예시412</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1009,12 +1013,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1027,43 +1031,47 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>공격적</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시304</t>
+          <t>예시622</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1079,20 +1087,20 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시109</t>
+          <t>예시406</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1102,12 +1110,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1128,20 +1136,20 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시505</t>
+          <t>예시407</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1151,12 +1159,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1177,20 +1185,20 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시403</t>
+          <t>예시210</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1200,7 +1208,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1210,7 +1218,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1226,20 +1234,20 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="n">
         <v>3</v>
       </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시302</t>
+          <t>예시603</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1249,12 +1257,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>A</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1275,20 +1283,20 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시107</t>
+          <t>예시308</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1303,7 +1311,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1324,40 +1332,40 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시118</t>
+          <t>예시602</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1373,7 +1381,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1382,31 +1390,31 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시223</t>
+          <t>예시203</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>A</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>D</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1428,14 +1436,14 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시208</t>
+          <t>예시503</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1445,17 +1453,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1471,20 +1479,20 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
         <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시205</t>
+          <t>예시305</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1494,7 +1502,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1520,20 +1528,20 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>예시405</t>
+          <t>예시202</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1553,7 +1561,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1566,28 +1574,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>수업 방해</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>예시522</t>
+          <t>예시408</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1597,12 +1609,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1618,20 +1630,20 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>예시215</t>
+          <t>예시421</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1641,17 +1653,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1667,20 +1679,20 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B26" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>예시422</t>
+          <t>예시611</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1690,17 +1702,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1713,23 +1725,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>소극적</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>예시513</t>
+          <t>예시118</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1765,7 +1781,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1774,11 +1790,11 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>예시219</t>
+          <t>예시213</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1788,12 +1804,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1820,14 +1836,14 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>예시616</t>
+          <t>예시414</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1863,7 +1879,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1994,14 +2010,14 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시310</t>
+          <t>예시107</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2037,25 +2053,25 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시306</t>
+          <t>예시514</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2070,7 +2086,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2086,40 +2102,40 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시610</t>
+          <t>예시314</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2135,30 +2151,30 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시307</t>
+          <t>예시217</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2168,7 +2184,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2184,40 +2200,40 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시305</t>
+          <t>예시617</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2233,20 +2249,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시414</t>
+          <t>예시318</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2256,7 +2272,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2282,7 +2298,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2291,11 +2307,11 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시321</t>
+          <t>예시319</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2305,7 +2321,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2315,7 +2331,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2337,14 +2353,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시423</t>
+          <t>예시113</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2354,7 +2370,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2364,7 +2380,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2380,20 +2396,20 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시312</t>
+          <t>예시114</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2403,17 +2419,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2429,40 +2445,40 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시212</t>
+          <t>예시601</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2478,7 +2494,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2487,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시123</t>
+          <t>예시108</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2511,7 +2527,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2533,34 +2549,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시622</t>
+          <t>예시402</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2576,20 +2592,20 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시108</t>
+          <t>예시302</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2599,17 +2615,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2625,20 +2641,20 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시303</t>
+          <t>예시606</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2653,12 +2669,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2668,13 +2684,13 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2683,16 +2699,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시507</t>
+          <t>예시516</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2702,12 +2718,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2729,14 +2745,14 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시520</t>
+          <t>예시211</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2746,7 +2762,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2756,7 +2772,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2772,7 +2788,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2781,11 +2797,11 @@
         <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시419</t>
+          <t>예시422</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2795,7 +2811,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2805,7 +2821,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2827,14 +2843,14 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시114</t>
+          <t>예시315</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2844,12 +2860,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>A</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>B</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2870,7 +2886,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2879,11 +2895,11 @@
         <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시611</t>
+          <t>예시616</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2898,12 +2914,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2916,11 +2932,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>소극적</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>6</t>
@@ -2929,14 +2941,14 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시323</t>
+          <t>예시116</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2951,12 +2963,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2972,25 +2984,25 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>예시121</t>
+          <t>예시209</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3000,17 +3012,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3021,20 +3033,20 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>예시210</t>
+          <t>예시304</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3044,17 +3056,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3070,7 +3082,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3079,11 +3091,11 @@
         <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>예시410</t>
+          <t>예시405</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3093,7 +3105,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3128,26 +3140,26 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>예시112</t>
+          <t>예시110</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3162,7 +3174,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -3174,34 +3186,34 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>예시502</t>
+          <t>예시220</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3217,20 +3229,20 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>예시314</t>
+          <t>예시521</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3240,17 +3252,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3263,43 +3275,47 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>도벽</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>예시621</t>
+          <t>예시303</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>A</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>D</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3315,7 +3331,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3446,14 +3462,14 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시602</t>
+          <t>예시301</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3463,12 +3479,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -3489,20 +3505,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시301</t>
+          <t>예시106</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3517,12 +3533,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3538,20 +3554,20 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시508</t>
+          <t>예시205</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3561,12 +3577,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3576,7 +3592,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -3587,20 +3603,20 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시408</t>
+          <t>예시206</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3636,40 +3652,40 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시322</t>
+          <t>예시208</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -3685,40 +3701,40 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시615</t>
+          <t>예시509</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -3734,25 +3750,25 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시318</t>
+          <t>예시605</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3762,12 +3778,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -3783,20 +3799,20 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시319</t>
+          <t>예시621</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3811,12 +3827,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -3832,20 +3848,20 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시614</t>
+          <t>예시419</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3855,12 +3871,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3881,20 +3897,20 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시122</t>
+          <t>예시212</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3904,17 +3920,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -3930,20 +3946,20 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시521</t>
+          <t>예시120</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3953,7 +3969,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3963,7 +3979,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -3976,27 +3992,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>도벽</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시417</t>
+          <t>예시619</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4006,12 +4018,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -4032,20 +4044,20 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시317</t>
+          <t>예시423</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4055,17 +4067,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4078,27 +4090,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>알레르기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시416</t>
+          <t>예시320</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4108,7 +4116,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4134,40 +4142,40 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시201</t>
+          <t>예시518</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4183,7 +4191,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4192,31 +4200,31 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시503</t>
+          <t>예시523</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4238,34 +4246,34 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시407</t>
+          <t>예시321</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>B</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4281,40 +4289,40 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시110</t>
+          <t>예시215</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4330,7 +4338,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4339,21 +4347,21 @@
         <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시605</t>
+          <t>예시614</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4363,7 +4371,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4385,24 +4393,24 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="B22" t="n">
-        <v>17</v>
-      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시117</t>
+          <t>예시201</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4412,7 +4420,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4428,35 +4436,35 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>예시211</t>
+          <t>예시510</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4471,31 +4479,31 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>예시115</t>
+          <t>예시307</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4505,12 +4513,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4526,20 +4534,20 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>예시518</t>
+          <t>예시613</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4549,12 +4557,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4575,7 +4583,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4584,31 +4592,31 @@
         <v>4</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>예시406</t>
+          <t>예시418</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4630,19 +4638,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B27" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>예시218</t>
+          <t>예시506</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -4652,12 +4660,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4673,40 +4681,40 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>예시207</t>
+          <t>예시415</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4722,20 +4730,20 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>예시519</t>
+          <t>예시115</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4745,12 +4753,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -4771,7 +4779,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4905,11 +4913,11 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시510</t>
+          <t>예시502</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4919,19 +4927,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>X</t>
@@ -4939,7 +4947,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -4951,14 +4959,14 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시609</t>
+          <t>예시508</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4968,12 +4976,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -4983,7 +4991,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -4994,20 +5002,20 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시404</t>
+          <t>예시507</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5022,12 +5030,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -5043,20 +5051,20 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>9</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시509</t>
+          <t>예시609</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5071,7 +5079,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -5092,20 +5100,20 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시606</t>
+          <t>예시309</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5115,12 +5123,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -5135,26 +5143,26 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시607</t>
+          <t>예시207</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5164,7 +5172,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5190,7 +5198,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5199,11 +5207,11 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시603</t>
+          <t>예시604</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5213,12 +5221,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -5245,34 +5253,34 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시523</t>
+          <t>예시608</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -5288,20 +5296,20 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시514</t>
+          <t>예시112</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -5311,17 +5319,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -5331,13 +5339,13 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5346,11 +5354,11 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시517</t>
+          <t>예시512</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5360,17 +5368,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -5392,14 +5400,14 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시222</t>
+          <t>예시620</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5414,12 +5422,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -5435,20 +5443,20 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시618</t>
+          <t>예시316</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5458,7 +5466,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -5478,26 +5486,26 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시216</t>
+          <t>예시522</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -5507,17 +5515,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -5533,20 +5541,20 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시113</t>
+          <t>예시511</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -5556,17 +5564,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -5582,20 +5590,20 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시221</t>
+          <t>예시312</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -5605,7 +5613,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -5615,7 +5623,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -5631,20 +5639,20 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시116</t>
+          <t>예시519</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5654,12 +5662,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -5680,7 +5688,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5689,11 +5697,11 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시213</t>
+          <t>예시218</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5703,12 +5711,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -5735,14 +5743,14 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시316</t>
+          <t>예시413</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5752,12 +5760,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -5772,13 +5780,13 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5787,11 +5795,11 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시220</t>
+          <t>예시214</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5801,12 +5809,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -5821,7 +5829,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -5833,14 +5841,14 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시619</t>
+          <t>예시520</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5850,12 +5858,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -5876,7 +5884,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5885,31 +5893,31 @@
         <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>예시308</t>
+          <t>예시313</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -5931,19 +5939,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>예시202</t>
+          <t>예시322</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5958,7 +5966,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5971,27 +5979,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>수업 방해</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>예시601</t>
+          <t>예시104</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -6001,12 +6005,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>B</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -6027,7 +6031,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6036,11 +6040,11 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>예시106</t>
+          <t>예시109</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -6055,7 +6059,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -6082,14 +6086,14 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>예시315</t>
+          <t>예시221</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -6109,7 +6113,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -6125,35 +6129,35 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>예시111</t>
+          <t>예시310</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -6174,7 +6178,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6309,14 +6313,14 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시203</t>
+          <t>예시501</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6331,7 +6335,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -6352,20 +6356,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시604</t>
+          <t>예시306</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6375,17 +6379,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6401,20 +6405,20 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시501</t>
+          <t>예시610</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6424,17 +6428,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6450,20 +6454,20 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시309</t>
+          <t>예시607</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6499,7 +6503,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6554,14 +6558,14 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시206</t>
+          <t>예시410</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6571,7 +6575,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -6597,20 +6601,20 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시608</t>
+          <t>예시204</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -6620,17 +6624,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>A</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>B</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -6646,20 +6650,20 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시104</t>
+          <t>예시504</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -6669,7 +6673,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -6695,20 +6699,20 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시209</t>
+          <t>예시403</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -6718,17 +6722,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6744,40 +6748,40 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시506</t>
+          <t>예시417</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -6793,30 +6797,30 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시402</t>
+          <t>예시122</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -6826,7 +6830,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -6842,7 +6846,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6851,11 +6855,11 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시612</t>
+          <t>예시615</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -6870,12 +6874,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -6897,14 +6901,14 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시515</t>
+          <t>예시623</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -6919,17 +6923,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -6940,20 +6944,20 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시311</t>
+          <t>예시117</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -6968,12 +6972,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -6989,20 +6993,20 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시512</t>
+          <t>예시121</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -7017,17 +7021,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7038,20 +7042,20 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시214</t>
+          <t>예시420</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -7061,12 +7065,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7081,26 +7085,26 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시412</t>
+          <t>예시323</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -7115,12 +7119,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7133,27 +7137,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>공격적</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시217</t>
+          <t>예시123</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7189,20 +7189,20 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시420</t>
+          <t>예시513</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -7238,20 +7238,20 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시418</t>
+          <t>예시515</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -7287,20 +7287,20 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>예시320</t>
+          <t>예시517</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -7336,20 +7336,20 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>예시421</t>
+          <t>예시618</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7385,20 +7385,20 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>예시516</t>
+          <t>예시219</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -7408,12 +7408,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>A</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -7434,20 +7434,20 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>예시620</t>
+          <t>예시411</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -7457,17 +7457,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7483,30 +7483,30 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>예시411</t>
+          <t>예시505</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -7532,40 +7532,40 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>예시120</t>
+          <t>예시404</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -7581,7 +7581,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7690,25 +7690,25 @@
         <v>493</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9</v>
+      </c>
+      <c r="L2" t="n">
         <v>6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
@@ -7730,31 +7730,31 @@
         <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -7773,31 +7773,31 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
         <v>9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7819,25 +7819,25 @@
         <v>476</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+      <c r="I5" t="n">
         <v>6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
       </c>
       <c r="J5" t="n">
         <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
@@ -7862,28 +7862,28 @@
         <v>476</v>
       </c>
       <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12</v>
+      </c>
+      <c r="L6" t="n">
         <v>7</v>
       </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Class_Assignment_Results.xlsx
+++ b/Class_Assignment_Results.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Class_3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Class_4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Class_5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Class_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Summary" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,31 +501,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>예시101</t>
+          <t>예시111</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -546,14 +547,14 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시111</t>
+          <t>예시219</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -568,12 +569,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -589,20 +590,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시119</t>
+          <t>예시412</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -612,17 +613,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -635,10 +636,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>공격적</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -647,11 +652,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시317</t>
+          <t>예시323</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -661,17 +666,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -684,11 +689,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>알레르기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>3</t>
@@ -697,14 +698,14 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시416</t>
+          <t>예시117</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -714,12 +715,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -740,20 +741,20 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시311</t>
+          <t>예시622</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -768,12 +769,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -789,7 +790,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -798,33 +799,33 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시223</t>
+          <t>예시202</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>X</t>
@@ -835,7 +836,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>수업 방해</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>2</t>
@@ -844,14 +849,14 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시222</t>
+          <t>예시513</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -861,7 +866,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -871,7 +876,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -887,25 +892,25 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시612</t>
+          <t>예시301</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -920,7 +925,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -936,25 +941,25 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시216</t>
+          <t>예시101</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -964,12 +969,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -985,35 +990,35 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시412</t>
+          <t>예시608</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1031,14 +1036,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>공격적</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1047,16 +1048,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시622</t>
+          <t>예시609</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1066,12 +1067,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1093,24 +1094,24 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시406</t>
+          <t>예시613</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1120,7 +1121,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1136,7 +1137,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1145,31 +1146,31 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시407</t>
+          <t>예시416</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1191,14 +1192,14 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시210</t>
+          <t>예시109</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1208,12 +1209,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1234,20 +1235,20 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시603</t>
+          <t>예시310</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1257,17 +1258,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1283,25 +1284,25 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시308</t>
+          <t>예시421</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1311,12 +1312,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1332,20 +1333,20 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시602</t>
+          <t>예시501</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1355,12 +1356,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1381,20 +1382,20 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시203</t>
+          <t>예시403</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1409,7 +1410,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1430,40 +1431,40 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시503</t>
+          <t>예시311</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1479,20 +1480,20 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시305</t>
+          <t>예시104</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1502,17 +1503,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>A</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>B</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1528,358 +1529,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>예시202</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>수업 방해</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>4</v>
-      </c>
-      <c r="B24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>예시408</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>4</v>
-      </c>
-      <c r="B25" t="n">
-        <v>21</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>예시421</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>6</v>
-      </c>
-      <c r="B26" t="n">
-        <v>11</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>예시611</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>소극적</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="n">
-        <v>18</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>예시118</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
           <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2</v>
-      </c>
-      <c r="B28" t="n">
-        <v>13</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>예시213</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>4</v>
-      </c>
-      <c r="B29" t="n">
-        <v>14</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>예시414</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1964,31 +1614,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>예시102</t>
+          <t>예시112</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1998,7 +1648,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -2010,19 +1660,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시107</t>
+          <t>예시515</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2037,7 +1687,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2053,20 +1703,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시514</t>
+          <t>예시216</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2081,7 +1731,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2102,40 +1752,40 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시314</t>
+          <t>예시402</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2151,30 +1801,30 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시217</t>
+          <t>예시105</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2184,7 +1834,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2197,43 +1847,47 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>집중 못함</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시617</t>
+          <t>예시304</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2249,30 +1903,30 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시318</t>
+          <t>예시102</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2282,7 +1936,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2298,20 +1952,20 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>19</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시319</t>
+          <t>예시519</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2326,7 +1980,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2347,25 +2001,25 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시113</t>
+          <t>예시207</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2375,12 +2029,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2396,30 +2050,30 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시114</t>
+          <t>예시506</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2429,7 +2083,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2445,30 +2099,30 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시601</t>
+          <t>예시318</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2478,7 +2132,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2494,7 +2148,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2503,16 +2157,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시108</t>
+          <t>예시115</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2522,12 +2176,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2552,11 +2206,11 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시402</t>
+          <t>예시407</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2566,17 +2220,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2598,24 +2252,24 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시302</t>
+          <t>예시522</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2625,7 +2279,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2641,30 +2295,30 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시606</t>
+          <t>예시520</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2674,7 +2328,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2684,31 +2338,31 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시516</t>
+          <t>예시604</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2718,12 +2372,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2739,40 +2393,40 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="B18" t="n">
-        <v>11</v>
-      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시211</t>
+          <t>예시302</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2788,20 +2442,20 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
         <v>22</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시422</t>
+          <t>예시222</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2811,12 +2465,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2837,20 +2491,20 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="n">
         <v>15</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시315</t>
+          <t>예시415</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2860,12 +2514,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2886,40 +2540,40 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시616</t>
+          <t>예시401</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>A</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2935,20 +2589,20 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시116</t>
+          <t>예시518</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2958,12 +2612,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2984,354 +2638,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" t="n">
-        <v>9</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>예시209</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>예시304</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>4</v>
-      </c>
-      <c r="B25" t="n">
-        <v>5</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>예시405</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="n">
-        <v>10</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>예시110</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2</v>
-      </c>
-      <c r="B27" t="n">
-        <v>20</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>예시220</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>5</v>
-      </c>
-      <c r="B28" t="n">
-        <v>21</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>예시521</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>도벽</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
           <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>예시303</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
@@ -3346,7 +2653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3416,16 +2723,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>예시103</t>
+          <t>예시113</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3435,12 +2742,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3462,24 +2769,24 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시301</t>
+          <t>예시517</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3489,7 +2796,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3505,7 +2812,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3514,31 +2821,31 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시106</t>
+          <t>예시119</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3560,14 +2867,14 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시205</t>
+          <t>예시510</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3577,12 +2884,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3597,36 +2904,36 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시206</t>
+          <t>예시313</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3636,7 +2943,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3652,40 +2959,40 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시208</t>
+          <t>예시114</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -3701,25 +3008,25 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시509</t>
+          <t>예시617</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3734,7 +3041,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -3750,25 +3057,25 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시605</t>
+          <t>예시315</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3778,12 +3085,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -3799,30 +3106,30 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시621</t>
+          <t>예시205</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3832,7 +3139,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -3848,40 +3155,40 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
         <v>4</v>
       </c>
-      <c r="B11" t="n">
-        <v>19</v>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시419</t>
+          <t>예시204</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3897,40 +3204,40 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시212</t>
+          <t>예시404</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -3946,20 +3253,20 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시120</t>
+          <t>예시422</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3974,12 +3281,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -3995,40 +3302,40 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시619</t>
+          <t>예시504</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4044,40 +3351,40 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시423</t>
+          <t>예시107</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4093,40 +3400,40 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시320</t>
+          <t>예시406</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -4142,20 +3449,20 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시518</t>
+          <t>예시621</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4170,12 +3477,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4191,20 +3498,20 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시523</t>
+          <t>예시217</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4214,17 +3521,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4240,40 +3547,40 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시321</t>
+          <t>예시106</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4289,20 +3596,20 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시215</t>
+          <t>예시116</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4312,12 +3619,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4338,40 +3645,40 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시614</t>
+          <t>예시110</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4387,7 +3694,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4396,11 +3703,11 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시201</t>
+          <t>예시203</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4410,12 +3717,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>A</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4437,349 +3744,6 @@
       <c r="K22" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>10</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>예시510</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" t="n">
-        <v>7</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>예시307</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>6</v>
-      </c>
-      <c r="B25" t="n">
-        <v>13</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>예시613</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>4</v>
-      </c>
-      <c r="B26" t="n">
-        <v>18</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>예시418</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B27" t="n">
-        <v>6</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>예시506</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" t="n">
-        <v>15</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>예시415</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="n">
-        <v>15</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>예시115</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -4794,7 +3758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4861,34 +3825,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>예시401</t>
+          <t>예시211</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -4904,20 +3868,20 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시502</t>
+          <t>예시603</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4927,12 +3891,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -4953,20 +3917,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>8</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시508</t>
+          <t>예시408</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4976,7 +3940,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4991,7 +3955,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -5002,20 +3966,20 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시507</t>
+          <t>예시206</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5025,12 +3989,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -5051,20 +4015,20 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시609</t>
+          <t>예시505</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5074,7 +4038,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -5100,20 +4064,20 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>9</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시309</t>
+          <t>예시209</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5123,12 +4087,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -5149,20 +4113,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시207</t>
+          <t>예시503</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5172,7 +4136,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5182,7 +4146,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -5198,40 +4162,40 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시604</t>
+          <t>예시221</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -5247,25 +4211,25 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시608</t>
+          <t>예시414</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -5275,12 +4239,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -5296,20 +4260,20 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시112</t>
+          <t>예시320</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -5319,17 +4283,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -5339,26 +4303,26 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시512</t>
+          <t>예시123</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5378,7 +4342,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -5394,20 +4358,20 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시620</t>
+          <t>예시319</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5417,7 +4381,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -5443,20 +4407,20 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시316</t>
+          <t>예시611</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5466,17 +4430,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -5486,26 +4450,30 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>소극적</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>22</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시522</t>
+          <t>예시322</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -5515,12 +4483,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -5541,20 +4509,20 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시511</t>
+          <t>예시118</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -5564,7 +4532,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5574,7 +4542,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -5590,20 +4558,20 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
         <v>12</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시312</t>
+          <t>예시512</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -5613,12 +4581,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -5639,40 +4607,40 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
         <v>5</v>
       </c>
-      <c r="B18" t="n">
-        <v>19</v>
-      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시519</t>
+          <t>예시305</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -5688,20 +4656,20 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시218</t>
+          <t>예시619</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5711,12 +4679,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -5737,25 +4705,25 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시413</t>
+          <t>예시108</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5770,7 +4738,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -5786,30 +4754,30 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시214</t>
+          <t>예시508</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5819,41 +4787,41 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시520</t>
+          <t>예시309</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5863,12 +4831,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -5883,300 +4851,6 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" t="n">
-        <v>13</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>예시313</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>예시322</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>예시104</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="n">
-        <v>9</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>예시109</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2</v>
-      </c>
-      <c r="B27" t="n">
-        <v>21</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>예시221</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" t="n">
-        <v>10</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>예시310</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -6193,7 +4867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6260,34 +4934,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>예시105</t>
+          <t>예시213</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6300,27 +4974,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>집중 못함</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시501</t>
+          <t>예시210</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6330,17 +5000,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6356,7 +5026,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6365,11 +5035,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시306</t>
+          <t>예시303</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6379,7 +5049,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -6389,7 +5059,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6414,11 +5084,11 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시610</t>
+          <t>예시601</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6433,12 +5103,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6460,14 +5130,14 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시607</t>
+          <t>예시208</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6477,12 +5147,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6503,20 +5173,20 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시409</t>
+          <t>예시607</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6531,7 +5201,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6552,7 +5222,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6561,11 +5231,11 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시410</t>
+          <t>예시405</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6575,7 +5245,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -6607,14 +5277,14 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시204</t>
+          <t>예시605</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -6629,12 +5299,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -6650,7 +5320,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6659,16 +5329,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시504</t>
+          <t>예시521</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -6678,14 +5348,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>X</t>
@@ -6696,7 +5366,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>도벽</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>5</t>
@@ -6705,24 +5379,24 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시403</t>
+          <t>예시514</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -6732,7 +5406,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6748,7 +5422,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6757,11 +5431,11 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시417</t>
+          <t>예시411</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -6771,17 +5445,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -6803,14 +5477,14 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시122</t>
+          <t>예시218</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6820,7 +5494,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -6830,7 +5504,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -6846,20 +5520,20 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시615</t>
+          <t>예시321</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -6869,17 +5543,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -6895,7 +5569,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6904,11 +5578,11 @@
         <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시623</t>
+          <t>예시620</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -6918,22 +5592,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -6950,14 +5624,14 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시117</t>
+          <t>예시523</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -6967,17 +5641,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -6993,20 +5667,20 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시121</t>
+          <t>예시612</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -7016,7 +5690,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -7026,12 +5700,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7042,20 +5716,20 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
         <v>20</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시420</t>
+          <t>예시220</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -7070,7 +5744,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7091,40 +5765,40 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시323</t>
+          <t>예시201</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7140,25 +5814,25 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시123</t>
+          <t>예시606</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -7168,12 +5842,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7183,13 +5857,13 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7198,11 +5872,11 @@
         <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시513</t>
+          <t>예시516</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -7212,7 +5886,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -7244,34 +5918,34 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시515</t>
+          <t>예시409</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7286,300 +5960,6 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>17</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>예시517</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>6</v>
-      </c>
-      <c r="B24" t="n">
-        <v>18</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>예시618</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" t="n">
-        <v>19</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>예시219</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>4</v>
-      </c>
-      <c r="B26" t="n">
-        <v>11</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>예시411</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B27" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>예시505</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>예시404</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -7596,7 +5976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7612,6 +5992,1115 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>번호</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>학생 이름</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>성적 등급 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>생활지도 어려움 등급 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>체력 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>다문화 여부 (O/X)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>복지대상 여부 (O/X)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>전 학년 반</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>예시314</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>예시502</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>예시507</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>예시306</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>예시602</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>예시308</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>예시610</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>예시307</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>예시103</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>예시614</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>예시418</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>예시413</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>예시417</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>예시316</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>예시312</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>예시618</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>21</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>예시121</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>예시615</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>예시317</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>알레르기</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>23</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>예시223</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>예시509</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>반</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>총 학생 수</t>
         </is>
       </c>
@@ -7678,40 +7167,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>493</v>
+        <v>369</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
       </c>
       <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
         <v>6</v>
       </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7721,37 +7210,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>493</v>
+        <v>370</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -7764,31 +7253,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>494</v>
+        <v>369</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
         <v>9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>7</v>
@@ -7797,7 +7286,7 @@
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -7807,40 +7296,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>476</v>
+        <v>369</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
         <v>12</v>
       </c>
       <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
         <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -7850,39 +7339,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>476</v>
+        <v>369</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
+        <v>7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Class_6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
         <v>12</v>
       </c>
-      <c r="L6" t="n">
+      <c r="E7" t="n">
+        <v>370</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
         <v>7</v>
       </c>
-      <c r="M6" t="n">
+      <c r="J7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
         <v>4</v>
       </c>
     </row>

--- a/Class_Assignment_Results.xlsx
+++ b/Class_Assignment_Results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,34 +497,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>예시101</t>
+          <t>예시412</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -537,33 +537,37 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>공격적</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시111</t>
+          <t>예시502</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -573,7 +577,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -589,7 +593,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -598,31 +602,31 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시119</t>
+          <t>예시105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -635,7 +639,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>집중 못함</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>1</t>
@@ -644,14 +652,14 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시317</t>
+          <t>예시619</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -661,12 +669,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -684,14 +692,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>알레르기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -700,11 +704,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시416</t>
+          <t>예시419</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -714,7 +718,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -746,19 +750,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시311</t>
+          <t>예시408</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -768,7 +772,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -789,40 +793,40 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시223</t>
+          <t>예시303</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>A</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>D</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -838,7 +842,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -847,11 +851,11 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시222</t>
+          <t>예시217</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -871,7 +875,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -893,14 +897,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시612</t>
+          <t>예시114</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -910,7 +914,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -920,7 +924,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -936,20 +940,20 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시216</t>
+          <t>예시514</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -964,7 +968,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -985,20 +989,20 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시412</t>
+          <t>예시123</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1013,12 +1017,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1031,27 +1035,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>공격적</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
         <v>22</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시622</t>
+          <t>예시322</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1087,30 +1087,30 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시406</t>
+          <t>예시220</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1136,20 +1136,20 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>7</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시407</t>
+          <t>예시507</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1185,20 +1185,20 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시210</t>
+          <t>예시304</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1208,17 +1208,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1234,7 +1234,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1243,16 +1243,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시603</t>
+          <t>예시618</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1262,12 +1262,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1289,34 +1289,34 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시308</t>
+          <t>예시519</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1332,20 +1332,20 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시602</t>
+          <t>예시308</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1381,7 +1381,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1390,16 +1390,16 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시203</t>
+          <t>예시212</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1436,14 +1436,14 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시503</t>
+          <t>예시101</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1479,25 +1479,25 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시305</t>
+          <t>예시614</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1528,20 +1528,20 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>예시202</t>
+          <t>예시506</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1574,27 +1574,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>수업 방해</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>예시408</t>
+          <t>예시205</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1609,7 +1605,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1630,25 +1626,25 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>예시421</t>
+          <t>예시606</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1663,7 +1659,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1673,46 +1669,46 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>예시611</t>
+          <t>예시402</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1725,159 +1721,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>소극적</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="n">
-        <v>18</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>예시118</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2</v>
-      </c>
-      <c r="B28" t="n">
-        <v>13</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>예시213</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>4</v>
-      </c>
-      <c r="B29" t="n">
-        <v>14</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>예시414</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -1894,7 +1739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1961,34 +1806,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>예시102</t>
+          <t>예시615</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2004,20 +1849,20 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시107</t>
+          <t>예시601</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2027,17 +1872,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2053,30 +1898,30 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시514</t>
+          <t>예시309</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2086,7 +1931,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2102,20 +1947,20 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시314</t>
+          <t>예시416</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2125,7 +1970,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2151,20 +1996,20 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시217</t>
+          <t>예시120</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2174,7 +2019,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2200,40 +2045,40 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시617</t>
+          <t>예시505</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2249,20 +2094,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시318</t>
+          <t>예시422</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2282,7 +2127,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2298,7 +2143,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2307,21 +2152,21 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시319</t>
+          <t>예시302</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2331,7 +2176,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2353,14 +2198,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시113</t>
+          <t>예시214</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2370,12 +2215,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2390,13 +2235,13 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2405,11 +2250,11 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시114</t>
+          <t>예시115</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2419,12 +2264,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2454,11 +2299,11 @@
         <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시601</t>
+          <t>예시605</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2468,17 +2313,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2500,34 +2345,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시108</t>
+          <t>예시215</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2543,45 +2388,45 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시402</t>
+          <t>예시121</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2592,20 +2437,20 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시302</t>
+          <t>예시510</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2620,12 +2465,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2635,13 +2480,13 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2650,16 +2495,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시606</t>
+          <t>예시617</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2669,12 +2514,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2684,7 +2529,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -2696,34 +2541,34 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시516</t>
+          <t>예시409</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2739,40 +2584,40 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시211</t>
+          <t>예시501</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2788,7 +2633,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2797,16 +2642,16 @@
         <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시422</t>
+          <t>예시401</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2821,7 +2666,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2843,19 +2688,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시315</t>
+          <t>예시207</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2865,12 +2710,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2886,20 +2731,20 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21" t="n">
         <v>16</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시616</t>
+          <t>예시316</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2909,12 +2754,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2929,26 +2774,26 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="n">
         <v>16</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시116</t>
+          <t>예시516</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2958,12 +2803,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2984,20 +2829,20 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>예시209</t>
+          <t>예시604</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3007,17 +2852,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3033,7 +2878,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3042,31 +2887,31 @@
         <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>예시304</t>
+          <t>예시321</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3088,14 +2933,14 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>예시405</t>
+          <t>예시607</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3131,20 +2976,20 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>예시110</t>
+          <t>예시202</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3154,7 +2999,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3164,7 +3009,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3177,23 +3022,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>수업 방해</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>예시220</t>
+          <t>예시118</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3208,7 +3057,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3229,109 +3078,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>5</v>
-      </c>
-      <c r="B28" t="n">
-        <v>21</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>예시521</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>도벽</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>예시303</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3413,34 +3160,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>예시103</t>
+          <t>예시415</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3456,7 +3203,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3465,21 +3212,21 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시301</t>
+          <t>예시320</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3489,7 +3236,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3511,14 +3258,14 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시106</t>
+          <t>예시602</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3528,17 +3275,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3554,7 +3301,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3563,31 +3310,31 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시205</t>
+          <t>예시213</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3609,29 +3356,29 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시206</t>
+          <t>예시411</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3652,20 +3399,20 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시208</t>
+          <t>예시307</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3680,7 +3427,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3701,25 +3448,25 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시509</t>
+          <t>예시112</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3729,7 +3476,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3744,26 +3491,26 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시605</t>
+          <t>예시109</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3773,7 +3520,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3799,20 +3546,20 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시621</t>
+          <t>예시319</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3827,12 +3574,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -3848,20 +3595,20 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시419</t>
+          <t>예시117</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3871,12 +3618,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3897,35 +3644,35 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시212</t>
+          <t>예시406</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3946,20 +3693,20 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시120</t>
+          <t>예시517</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3969,12 +3716,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3995,20 +3742,20 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시619</t>
+          <t>예시223</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4018,17 +3765,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4044,20 +3791,20 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시423</t>
+          <t>예시622</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4067,12 +3814,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4093,40 +3840,40 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
         <v>3</v>
       </c>
-      <c r="B16" t="n">
-        <v>20</v>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시320</t>
+          <t>예시403</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>A</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -4142,7 +3889,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4151,16 +3898,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시518</t>
+          <t>예시508</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4170,17 +3917,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4200,21 +3947,21 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시523</t>
+          <t>예시509</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4224,7 +3971,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4249,16 +3996,16 @@
         <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시321</t>
+          <t>예시305</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4268,12 +4015,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4295,14 +4042,14 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시215</t>
+          <t>예시518</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4338,20 +4085,20 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시614</t>
+          <t>예시218</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4361,12 +4108,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>A</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>D</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4387,40 +4134,40 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시201</t>
+          <t>예시423</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4436,25 +4183,25 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>예시510</t>
+          <t>예시313</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4469,7 +4216,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4479,26 +4226,26 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>예시307</t>
+          <t>예시208</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4513,7 +4260,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4534,7 +4281,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4543,11 +4290,11 @@
         <v>6</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>예시613</t>
+          <t>예시611</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4557,17 +4304,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4580,7 +4327,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>소극적</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>6</t>
@@ -4589,34 +4340,34 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>예시418</t>
+          <t>예시102</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4632,40 +4383,40 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>예시506</t>
+          <t>예시613</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4681,105 +4432,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" t="n">
-        <v>15</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>예시415</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="n">
-        <v>15</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>예시115</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4861,14 +4514,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>예시401</t>
+          <t>예시603</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4878,12 +4531,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -4904,7 +4557,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4913,16 +4566,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시502</t>
+          <t>예시512</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4932,12 +4585,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -4959,14 +4612,14 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시508</t>
+          <t>예시405</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4991,7 +4644,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -5002,30 +4655,30 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시507</t>
+          <t>예시216</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -5035,7 +4688,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -5051,20 +4704,20 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시609</t>
+          <t>예시106</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5074,12 +4727,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -5100,40 +4753,40 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시309</t>
+          <t>예시420</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -5149,20 +4802,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시207</t>
+          <t>예시108</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5198,40 +4851,40 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시604</t>
+          <t>예시119</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -5247,7 +4900,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5256,11 +4909,11 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시608</t>
+          <t>예시609</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -5270,12 +4923,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>A</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -5302,14 +4955,14 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>12</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시112</t>
+          <t>예시312</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -5319,12 +4972,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -5339,26 +4992,26 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시512</t>
+          <t>예시311</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5373,7 +5026,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -5394,25 +5047,25 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시620</t>
+          <t>예시503</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -5422,12 +5075,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -5443,20 +5096,20 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시316</t>
+          <t>예시219</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5466,12 +5119,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -5486,13 +5139,13 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5501,11 +5154,11 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시522</t>
+          <t>예시515</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -5520,12 +5173,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -5547,14 +5200,14 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시511</t>
+          <t>예시421</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -5564,17 +5217,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -5590,7 +5243,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5599,31 +5252,31 @@
         <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시312</t>
+          <t>예시301</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>A</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>B</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -5648,11 +5301,11 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시519</t>
+          <t>예시521</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5662,7 +5315,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -5672,7 +5325,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -5685,7 +5338,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>도벽</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>5</t>
@@ -5694,14 +5351,14 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시218</t>
+          <t>예시315</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5711,7 +5368,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -5737,7 +5394,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5746,31 +5403,31 @@
         <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시413</t>
+          <t>예시404</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -5795,11 +5452,11 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시214</t>
+          <t>예시221</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5809,17 +5466,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -5829,7 +5486,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -5841,14 +5498,14 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시520</t>
+          <t>예시616</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5858,12 +5515,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -5884,40 +5541,40 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
         <v>3</v>
       </c>
-      <c r="B23" t="n">
-        <v>13</v>
-      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>예시313</t>
+          <t>예시103</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -5933,30 +5590,30 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>예시322</t>
+          <t>예시210</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5966,7 +5623,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5982,40 +5639,40 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>예시104</t>
+          <t>예시620</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -6031,25 +5688,25 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>예시109</t>
+          <t>예시511</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6059,7 +5716,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -6080,105 +5737,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2</v>
-      </c>
-      <c r="B27" t="n">
-        <v>21</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>예시221</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" t="n">
-        <v>10</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>예시310</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6193,7 +5752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6260,34 +5819,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>예시105</t>
+          <t>예시414</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6300,47 +5859,43 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>집중 못함</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시501</t>
+          <t>예시413</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6356,20 +5911,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시306</t>
+          <t>예시407</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6379,12 +5934,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6405,40 +5960,40 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시610</t>
+          <t>예시318</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6454,30 +6009,30 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시607</t>
+          <t>예시222</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -6487,7 +6042,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6503,20 +6058,20 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시409</t>
+          <t>예시203</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6536,7 +6091,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6552,40 +6107,40 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시410</t>
+          <t>예시116</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6601,20 +6156,20 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시204</t>
+          <t>예시104</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -6624,12 +6179,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -6650,40 +6205,40 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시504</t>
+          <t>예시612</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6699,40 +6254,40 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시403</t>
+          <t>예시522</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6748,7 +6303,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6757,11 +6312,11 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시417</t>
+          <t>예시418</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -6771,12 +6326,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -6806,11 +6361,11 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시122</t>
+          <t>예시111</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6820,17 +6375,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -6852,24 +6407,24 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
         <v>6</v>
       </c>
-      <c r="B14" t="n">
-        <v>15</v>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시615</t>
+          <t>예시306</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -6879,7 +6434,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -6895,20 +6450,20 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시623</t>
+          <t>예시513</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -6918,22 +6473,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -6944,40 +6499,40 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시117</t>
+          <t>예시610</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -6993,20 +6548,20 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시121</t>
+          <t>예시417</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -7016,22 +6571,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7042,20 +6597,20 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시420</t>
+          <t>예시314</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -7065,12 +6620,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7091,20 +6646,20 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시323</t>
+          <t>예시211</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -7114,17 +6669,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7140,20 +6695,20 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
         <v>23</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시123</t>
+          <t>예시523</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -7163,12 +6718,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7189,20 +6744,20 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시513</t>
+          <t>예시323</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -7212,17 +6767,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7238,30 +6793,30 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시515</t>
+          <t>예시110</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -7271,7 +6826,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7287,7 +6842,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7296,31 +6851,31 @@
         <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>예시517</t>
+          <t>예시504</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7342,34 +6897,34 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>예시618</t>
+          <t>예시204</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7385,40 +6940,40 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>예시219</t>
+          <t>예시608</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7434,20 +6989,20 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>예시411</t>
+          <t>예시621</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -7467,7 +7022,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7483,105 +7038,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B27" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>예시505</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>예시404</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7678,40 +7135,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>493</v>
+        <v>560</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7721,40 +7178,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>493</v>
+        <v>589</v>
       </c>
       <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
       <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
         <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7764,40 +7221,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>494</v>
+        <v>559</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7807,40 +7264,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7850,40 +7307,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>476</v>
+        <v>589</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Class_Assignment_Results.xlsx
+++ b/Class_Assignment_Results.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Class_3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Class_4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Class_5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Class_X" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Summary" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>예시412</t>
+          <t>배슬민</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -524,7 +525,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -537,11 +538,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>공격적</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>4</t>
@@ -550,14 +547,14 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시502</t>
+          <t>안준혁</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -567,12 +564,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -593,7 +590,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시105</t>
+          <t>한수정</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -621,7 +618,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -639,11 +636,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>집중 못함</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>1</t>
@@ -652,34 +645,34 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시619</t>
+          <t>박지완</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -695,7 +688,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -704,11 +697,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시419</t>
+          <t>김지후</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -718,7 +711,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -728,7 +721,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -741,7 +734,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>학폭(피해)</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>4</t>
@@ -750,34 +747,34 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시408</t>
+          <t>이효린</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -793,20 +790,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시303</t>
+          <t>김우빈</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -816,7 +813,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -842,35 +839,35 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시217</t>
+          <t>박서후</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -891,40 +888,40 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시114</t>
+          <t>한리준</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -940,20 +937,20 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시514</t>
+          <t>김민서</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -963,17 +960,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -989,7 +986,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -998,31 +995,31 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시123</t>
+          <t>김지환</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1044,14 +1041,14 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시322</t>
+          <t>박소연</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1061,17 +1058,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1087,42 +1084,42 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시220</t>
+          <t>최연후</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>X</t>
@@ -1133,28 +1130,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>함구증</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시507</t>
+          <t>안채희</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1164,12 +1165,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1185,30 +1186,30 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시304</t>
+          <t>김하예</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1234,7 +1235,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1243,31 +1244,31 @@
         <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시618</t>
+          <t>한다원</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1289,14 +1290,14 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시519</t>
+          <t>구본서</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1306,12 +1307,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1332,20 +1333,20 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시308</t>
+          <t>유승민</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1365,7 +1366,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1378,23 +1379,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>집중력 저하</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시212</t>
+          <t>김아연</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1404,17 +1409,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1430,20 +1435,20 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시101</t>
+          <t>임승유</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1458,7 +1463,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1479,20 +1484,20 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시614</t>
+          <t>김서후</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1502,17 +1507,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1528,30 +1533,30 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>예시506</t>
+          <t>안희란</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1561,7 +1566,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1577,25 +1582,25 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>예시205</t>
+          <t>김시아</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1605,12 +1610,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1626,40 +1631,40 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>예시606</t>
+          <t>김채은</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1669,46 +1674,46 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>예시402</t>
+          <t>정아인</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1724,7 +1729,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1806,14 +1811,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>예시615</t>
+          <t>양다해</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1823,7 +1828,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1833,7 +1838,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1849,20 +1854,20 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시601</t>
+          <t>김수현</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1872,17 +1877,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1898,20 +1903,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시309</t>
+          <t>이현덕</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1921,12 +1926,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1947,20 +1952,20 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시416</t>
+          <t>정지아</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1970,17 +1975,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1993,23 +1998,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>20</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시120</t>
+          <t>조유라</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2019,7 +2028,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2029,7 +2038,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2039,13 +2048,18 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>학교폭력 4-1 최서린 분반
+정서적 예민함 있음</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2054,31 +2068,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시505</t>
+          <t>안윤주</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2100,24 +2114,24 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시422</t>
+          <t>김주원</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2127,7 +2141,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2143,20 +2157,20 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시302</t>
+          <t>이세빈</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2171,7 +2185,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2192,20 +2206,20 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시214</t>
+          <t>박예림</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2220,12 +2234,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2235,31 +2249,31 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시115</t>
+          <t>정우준</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2269,12 +2283,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2290,7 +2304,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2299,11 +2313,11 @@
         <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시605</t>
+          <t>이한빈</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2313,19 +2327,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>X</t>
@@ -2336,7 +2350,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>과민성대장중후군?</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>6</t>
@@ -2345,14 +2363,14 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시215</t>
+          <t>박보은</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2362,17 +2380,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2385,23 +2403,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시121</t>
+          <t>최루진</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2416,17 +2438,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2437,20 +2459,20 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시510</t>
+          <t>송성민</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2460,7 +2482,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2470,7 +2492,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2480,46 +2502,46 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시617</t>
+          <t>고부경</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2532,43 +2554,47 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>말 많음(노력중)</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시409</t>
+          <t>한수아</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2584,40 +2610,40 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시501</t>
+          <t>홍라임</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2633,20 +2659,20 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시401</t>
+          <t>장효준</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2656,17 +2682,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2679,43 +2705,47 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>생활지도 어려움</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시207</t>
+          <t>이하은</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2731,40 +2761,40 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시316</t>
+          <t>이윤후</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2774,13 +2804,13 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2789,11 +2819,11 @@
         <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시516</t>
+          <t>김선아</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2803,27 +2833,27 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -2835,34 +2865,34 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>예시604</t>
+          <t>이연주</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2872,26 +2902,30 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>교우관계 어려움</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>예시321</t>
+          <t>오서연</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2901,17 +2935,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2927,7 +2961,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2936,16 +2970,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>예시607</t>
+          <t>신아윤</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2977,108 +3011,6 @@
       <c r="K25" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>예시202</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>수업 방해</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="n">
-        <v>18</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>예시118</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -3088,1360 +3020,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>반</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>번호</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>학생 이름</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>성별</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>성적 등급 (A/B/C/D)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>생활지도 어려움 등급 (A/B/C/D)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>체력 (A/B/C/D)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>다문화 여부 (O/X)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>복지대상 여부 (O/X)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>비고</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>전 학년 반</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>예시415</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>예시320</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>예시602</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>13</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>예시213</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>예시411</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>예시307</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>12</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>예시112</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>예시109</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>19</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>예시319</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>17</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>예시117</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>예시406</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>17</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>예시517</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
-        <v>23</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>예시223</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>6</v>
-      </c>
-      <c r="B15" t="n">
-        <v>22</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>예시622</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>예시403</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>예시508</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>예시509</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>예시305</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>예시518</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" t="n">
-        <v>18</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>예시218</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B22" t="n">
-        <v>23</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>예시423</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" t="n">
-        <v>13</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>예시313</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2</v>
-      </c>
-      <c r="B24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>예시208</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>6</v>
-      </c>
-      <c r="B25" t="n">
-        <v>11</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>예시611</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>소극적</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>예시102</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>6</v>
-      </c>
-      <c r="B27" t="n">
-        <v>13</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>예시613</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4517,31 +3095,31 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>예시603</t>
+          <t>임지은</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -4554,7 +3132,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>생활지도 어려움</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>6</t>
@@ -4563,14 +3145,14 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시512</t>
+          <t>김민아</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4580,7 +3162,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4590,7 +3172,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -4606,20 +3188,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시405</t>
+          <t>김도형</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4634,12 +3216,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -4652,23 +3234,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>학폭(6반지후)</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시216</t>
+          <t>박시우</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4683,12 +3269,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -4698,13 +3284,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>잦은 결석</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4713,11 +3303,11 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시106</t>
+          <t>김종율</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4727,7 +3317,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4737,7 +3327,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -4759,14 +3349,14 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시420</t>
+          <t>양예서</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4776,17 +3366,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -4802,7 +3392,1324 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>손윤우</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>민예린</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>한유준</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>안준호</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>김초하</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>김하준</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>유소율</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>남하솔</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>최주완</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>정서율</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>신지오</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>전학미정</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>22</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>임민수</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>문지연</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>21</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>황지우</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>뺀들뺀들(노력중)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>이아인</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>구희율</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>생활지도</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>김태웅</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>박정효</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>정하은</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>반</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>번호</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>학생 이름</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>성적 등급 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>생활지도 어려움 등급 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>체력 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>다문화 여부 (O/X)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>복지대상 여부 (O/X)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>전 학년 반</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>정연우</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>강지연</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>매우산만함</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>김나영</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>이은혁</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>유예린</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>임시온</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4811,11 +4718,11 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시108</t>
+          <t>김도희</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4825,7 +4732,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4860,11 +4767,11 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시119</t>
+          <t>김단하</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4874,12 +4781,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -4892,10 +4799,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
@@ -4906,14 +4811,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시609</t>
+          <t>허윤재</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4928,12 +4833,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -4949,7 +4854,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4958,11 +4863,11 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시312</t>
+          <t>김가온</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4972,12 +4877,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -5004,24 +4909,24 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시311</t>
+          <t>모수헌</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -5031,7 +4936,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -5047,40 +4952,40 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시503</t>
+          <t>한율아</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -5096,20 +5001,20 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>19</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시219</t>
+          <t>이선우</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5124,7 +5029,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -5145,40 +5050,40 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시515</t>
+          <t>양규</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -5194,20 +5099,20 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시421</t>
+          <t>이율희</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -5217,17 +5122,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -5243,20 +5148,20 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시301</t>
+          <t>후세인</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -5266,12 +5171,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -5281,41 +5186,45 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>후세인</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시521</t>
+          <t>김도윤</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -5325,7 +5234,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -5338,27 +5247,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>도벽</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시315</t>
+          <t>임지윤</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5368,7 +5273,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -5378,7 +5283,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -5394,25 +5299,25 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시404</t>
+          <t>노은수</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5422,12 +5327,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -5443,20 +5348,20 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시221</t>
+          <t>김태희</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5466,7 +5371,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5492,7 +5397,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5501,11 +5406,11 @@
         <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시616</t>
+          <t>최지유</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5520,12 +5425,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -5547,34 +5452,34 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>예시103</t>
+          <t>유지수</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -5590,35 +5495,35 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>예시210</t>
+          <t>최세희</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -5638,104 +5543,6 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>6</v>
-      </c>
-      <c r="B25" t="n">
-        <v>20</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>예시620</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="n">
-        <v>11</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>예시511</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -5752,7 +5559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5822,31 +5629,31 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>예시414</t>
+          <t>송윤우</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -5871,11 +5678,11 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>예시413</t>
+          <t>송지민</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5890,12 +5697,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -5917,24 +5724,24 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>예시407</t>
+          <t>성서원</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5957,23 +5764,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>예시318</t>
+          <t>안여진</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5983,17 +5794,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6009,30 +5820,30 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>예시222</t>
+          <t>최예성</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -6042,7 +5853,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6058,20 +5869,20 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>예시203</t>
+          <t>김시현</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6081,7 +5892,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -6091,7 +5902,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6107,7 +5918,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6116,26 +5927,26 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>예시116</t>
+          <t>오승우</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -6165,16 +5976,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>예시104</t>
+          <t>김소영</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -6184,12 +5995,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -6211,24 +6022,24 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>예시612</t>
+          <t>최진혁</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -6238,7 +6049,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6254,20 +6065,20 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>예시522</t>
+          <t>김리원</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -6277,7 +6088,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -6303,40 +6114,40 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>예시418</t>
+          <t>황승후</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -6346,26 +6157,26 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예시111</t>
+          <t>박수진</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6380,7 +6191,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -6401,7 +6212,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6410,31 +6221,31 @@
         <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예시306</t>
+          <t>김시율</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -6447,7 +6258,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>학폭</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>3</t>
@@ -6456,19 +6271,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>예시513</t>
+          <t>김연우</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -6483,7 +6298,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -6496,38 +6311,42 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>특수</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>예시610</t>
+          <t>조유빈</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -6548,40 +6367,40 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>예시417</t>
+          <t>김찬우</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -6597,25 +6416,25 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예시314</t>
+          <t>송민석</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -6625,12 +6444,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -6643,23 +6462,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>공격적</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>예시211</t>
+          <t>김민서</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -6669,17 +6492,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -6692,28 +6515,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>예시523</t>
+          <t>이한율</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -6723,7 +6550,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -6744,20 +6571,20 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>예시323</t>
+          <t>김지온</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -6767,17 +6594,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -6793,7 +6620,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6802,16 +6629,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>예시110</t>
+          <t>최서린</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -6821,12 +6648,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -6839,7 +6666,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>화려한 이력(노력중)</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>1</t>
@@ -6848,34 +6679,34 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>예시504</t>
+          <t>최윤슬</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -6885,13 +6716,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>한부모</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6900,26 +6735,26 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>예시204</t>
+          <t>최희서</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -6946,19 +6781,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>예시608</t>
+          <t>박현지</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6968,12 +6803,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -6989,56 +6824,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>6</v>
-      </c>
-      <c r="B26" t="n">
-        <v>21</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>예시621</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7053,7 +6839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7069,6 +6855,821 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>번호</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>학생 이름</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>성적 등급 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>생활지도 어려움 등급 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>체력 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>다문화 여부 (O/X)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>복지대상 여부 (O/X)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>전 학년 반</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>이서준</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>권보현</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>안산오</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>이준우</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>박도현</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>황은혁</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>서은기</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>공감능력부족</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>17</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>전솔빈</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>고병찬</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>송주안</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>유채은</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>김채윤</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>이시현</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>임시은</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>서현승</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>반</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>총 학생 수</t>
         </is>
       </c>
@@ -7138,37 +7739,37 @@
         <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>560</v>
+        <v>499</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" t="n">
         <v>7</v>
       </c>
-      <c r="J2" t="n">
-        <v>10</v>
-      </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7178,40 +7779,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>589</v>
+        <v>513</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
         <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7221,40 +7822,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
         <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
         <v>4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7264,40 +7865,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>545</v>
+        <v>488</v>
       </c>
       <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
         <v>5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
       </c>
       <c r="I5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" t="n">
         <v>5</v>
       </c>
-      <c r="J5" t="n">
-        <v>10</v>
-      </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -7307,40 +7908,83 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>589</v>
+        <v>520</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
         <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Class_X</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>288</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Class_Assignment_Results.xlsx
+++ b/Class_Assignment_Results.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,31 +550,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>안준혁</t>
+          <t>송지민</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -599,11 +599,11 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>한수정</t>
+          <t>김단하</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -618,12 +618,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -631,10 +631,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
@@ -645,14 +643,14 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>박지완</t>
+          <t>손윤우</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -662,17 +660,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -688,20 +686,20 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>김지후</t>
+          <t>최윤슬</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -711,12 +709,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -731,50 +729,50 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>학폭(피해)</t>
+          <t>한부모</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>이효린</t>
+          <t>이세빈</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -790,7 +788,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -799,31 +797,31 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>김우빈</t>
+          <t>안윤주</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -845,14 +843,14 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>박서후</t>
+          <t>후세인</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -867,41 +865,45 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>후세인</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>한리준</t>
+          <t>이준우</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -911,7 +913,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -937,20 +939,20 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>김민서</t>
+          <t>김시율</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -960,17 +962,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -983,43 +985,47 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>학폭</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>김지환</t>
+          <t>최세희</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1035,20 +1041,20 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>박소연</t>
+          <t>한수아</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1058,17 +1064,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1084,30 +1090,30 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>최연후</t>
+          <t>김채은</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1117,7 +1123,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1130,27 +1136,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>함구증</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>안채희</t>
+          <t>박소연</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1186,40 +1188,40 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>김하예</t>
+          <t>한다원</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1235,7 +1237,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1244,11 +1246,11 @@
         <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>한다원</t>
+          <t>이한빈</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1258,12 +1260,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1281,7 +1283,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>과민성대장중후군?</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>6</t>
@@ -1293,16 +1299,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>구본서</t>
+          <t>이은혁</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1339,24 +1345,24 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>유승민</t>
+          <t>이선우</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1379,14 +1385,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>집중력 저하</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1395,11 +1397,11 @@
         <v>6</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>김아연</t>
+          <t>최지유</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1409,12 +1411,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1444,16 +1446,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>임승유</t>
+          <t>이율희</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1463,12 +1465,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1490,19 +1492,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>김서후</t>
+          <t>최예성</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1517,7 +1519,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1533,20 +1535,20 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>안희란</t>
+          <t>김하예</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1556,17 +1558,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1582,20 +1584,20 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>김시아</t>
+          <t>민예린</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1605,17 +1607,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1631,20 +1633,20 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>김채은</t>
+          <t>김초하</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1654,12 +1656,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1680,56 +1682,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>6</v>
-      </c>
-      <c r="B26" t="n">
-        <v>17</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>정아인</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1811,14 +1764,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>양다해</t>
+          <t>임지은</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1828,7 +1781,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1838,7 +1791,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1851,28 +1804,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>생활지도 어려움</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>김수현</t>
+          <t>강지연</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1887,12 +1844,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1900,28 +1857,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>매우산만함</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>이현덕</t>
+          <t>임지윤</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1931,7 +1892,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1952,7 +1913,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1961,16 +1922,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>정지아</t>
+          <t>송성민</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1980,12 +1941,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1998,11 +1959,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>무리</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>3</t>
@@ -2011,14 +1968,14 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>조유라</t>
+          <t>박수진</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2033,12 +1990,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2048,51 +2005,46 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>학교폭력 4-1 최서린 분반
-정서적 예민함 있음</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>안윤주</t>
+          <t>고부경</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2105,23 +2057,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>말 많음(노력중)</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>김주원</t>
+          <t>김연우</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2131,17 +2087,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2154,43 +2110,47 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>특수</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>이세빈</t>
+          <t>한수정</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2206,20 +2166,20 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>박예림</t>
+          <t>박시우</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2229,17 +2189,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2249,26 +2209,30 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>잦은 결석</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>정우준</t>
+          <t>김태웅</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2278,17 +2242,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2304,7 +2268,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2313,16 +2277,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>이한빈</t>
+          <t>신아윤</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2332,12 +2296,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2350,11 +2314,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>과민성대장중후군?</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>6</t>
@@ -2363,34 +2323,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>박보은</t>
+          <t>최연후</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2405,25 +2365,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>무리</t>
+          <t>함구증</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>최루진</t>
+          <t>조유라</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2433,7 +2393,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2443,7 +2403,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2453,26 +2413,31 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>학교폭력 4-1 최서린 분반
+정서적 예민함 있음</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>송성민</t>
+          <t>김도윤</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2482,7 +2447,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2492,7 +2457,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2508,35 +2473,35 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>고부경</t>
+          <t>이시현</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2551,17 +2516,13 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>말 많음(노력중)</t>
-        </is>
-      </c>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2570,26 +2531,26 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>한수아</t>
+          <t>김지환</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2616,14 +2577,14 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>홍라임</t>
+          <t>김선아</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2633,7 +2594,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2643,56 +2604,56 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>장효준</t>
+          <t>유소율</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2705,32 +2666,28 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>생활지도 어려움</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
         <v>14</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>이하은</t>
+          <t>안산오</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2761,40 +2718,40 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>이윤후</t>
+          <t>정지아</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2807,23 +2764,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="n">
         <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>김선아</t>
+          <t>김리원</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2833,61 +2794,61 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>이연주</t>
+          <t>김찬우</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2902,30 +2863,26 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>교우관계 어려움</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>오서연</t>
+          <t>김채윤</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2945,7 +2902,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2961,20 +2918,20 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>신아윤</t>
+          <t>문지연</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2984,12 +2941,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -3009,6 +2966,55 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" t="n">
+        <v>17</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>정아인</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -3092,14 +3098,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>임지은</t>
+          <t>정연우</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3109,17 +3115,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3134,45 +3140,45 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>생활지도 어려움</t>
+          <t>무리</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>김민아</t>
+          <t>김수현</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3188,20 +3194,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>김도형</t>
+          <t>안준혁</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3216,12 +3222,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3234,27 +3240,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>학폭(6반지후)</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>박시우</t>
+          <t>구본서</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3269,12 +3271,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3284,30 +3286,26 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>잦은 결석</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>김종율</t>
+          <t>임시온</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3317,7 +3315,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3327,7 +3325,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3343,20 +3341,20 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>양예서</t>
+          <t>정서율</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3371,7 +3369,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3392,7 +3390,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3401,11 +3399,11 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>손윤우</t>
+          <t>박도현</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3415,12 +3413,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3447,24 +3445,24 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>민예린</t>
+          <t>한유준</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3474,7 +3472,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -3490,40 +3488,40 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>한유준</t>
+          <t>유채은</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -3539,40 +3537,40 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>안준호</t>
+          <t>임시은</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3588,30 +3586,30 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>김초하</t>
+          <t>이윤후</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -3621,7 +3619,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -3637,25 +3635,25 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>김하준</t>
+          <t>양예서</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3665,12 +3663,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -3686,25 +3684,25 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>유소율</t>
+          <t>이서준</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3714,12 +3712,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3735,20 +3733,20 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>남하솔</t>
+          <t>안여진</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3768,7 +3766,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3784,25 +3782,25 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>최주완</t>
+          <t>오서연</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3812,12 +3810,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3833,20 +3831,20 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>정서율</t>
+          <t>이아인</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3861,12 +3859,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3882,20 +3880,20 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>신지오</t>
+          <t>오승우</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3915,7 +3913,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3928,32 +3926,28 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>전학미정</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>임민수</t>
+          <t>김시아</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3968,11 +3962,13 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -3982,20 +3978,20 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>문지연</t>
+          <t>구희율</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4005,17 +4001,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4028,28 +4024,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>생활지도</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="B21" t="n">
-        <v>21</v>
-      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>황지우</t>
+          <t>권보현</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4072,40 +4072,38 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>뺀들뺀들(노력중)</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" t="n">
         <v>5</v>
       </c>
-      <c r="B22" t="n">
-        <v>15</v>
-      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>이아인</t>
+          <t>김주원</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4115,7 +4113,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4131,20 +4129,20 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>구희율</t>
+          <t>유지수</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4154,7 +4152,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4164,7 +4162,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4177,47 +4175,43 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>생활지도</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>김태웅</t>
+          <t>남하솔</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4233,20 +4227,20 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>박정효</t>
+          <t>최서린</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4256,17 +4250,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4279,23 +4273,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>화려한 이력(노력중)</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>정하은</t>
+          <t>노은수</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4305,17 +4303,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4331,7 +4329,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4413,34 +4411,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>정연우</t>
+          <t>송윤우</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -4453,14 +4451,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>무리</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4469,11 +4463,11 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>강지연</t>
+          <t>김민아</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4483,22 +4477,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4506,11 +4500,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>매우산만함</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>6</t>
@@ -4519,34 +4509,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>김나영</t>
+          <t>유승민</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -4559,33 +4549,37 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>집중력 저하</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>이은혁</t>
+          <t>유예린</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4595,7 +4589,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -4611,20 +4605,20 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>유예린</t>
+          <t>김민서</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4634,12 +4628,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -4660,7 +4654,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4669,11 +4663,11 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>임시온</t>
+          <t>서은기</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4688,12 +4682,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -4706,7 +4700,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>공감능력부족</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>6</t>
@@ -4715,14 +4713,14 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>김도희</t>
+          <t>임승유</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4732,17 +4730,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -4758,7 +4756,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4767,11 +4765,11 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>김단하</t>
+          <t>이하은</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4781,17 +4779,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -4799,8 +4797,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
@@ -4811,34 +4811,34 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>허윤재</t>
+          <t>성서원</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -4851,28 +4851,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>김가온</t>
+          <t>양규</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -4887,7 +4891,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -4903,25 +4907,25 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>모수헌</t>
+          <t>김소영</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -4931,7 +4935,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -4952,35 +4956,35 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>한율아</t>
+          <t>박서후</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -5001,20 +5005,20 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>이선우</t>
+          <t>홍라임</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5024,12 +5028,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -5050,20 +5054,20 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>양규</t>
+          <t>김우빈</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -5078,7 +5082,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -5099,20 +5103,20 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
         <v>16</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>이율희</t>
+          <t>안희란</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -5148,35 +5152,35 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>후세인</t>
+          <t>최희서</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -5186,35 +5190,31 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>후세인</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>김도윤</t>
+          <t>송민석</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -5247,23 +5247,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>공격적</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>임지윤</t>
+          <t>김민서</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5273,17 +5277,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -5296,43 +5300,47 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>노은수</t>
+          <t>이한율</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -5348,20 +5356,20 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>김태희</t>
+          <t>조유빈</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5381,7 +5389,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -5397,20 +5405,20 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>최지유</t>
+          <t>박정효</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5420,7 +5428,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5430,7 +5438,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -5446,20 +5454,20 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>유지수</t>
+          <t>이효린</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -5469,12 +5477,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -5495,20 +5503,20 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>최세희</t>
+          <t>박보은</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -5518,33 +5526,86 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>김태희</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5626,34 +5687,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>송윤우</t>
+          <t>양다해</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>B</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -5669,40 +5730,40 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>송지민</t>
+          <t>김도형</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -5715,38 +5776,42 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>학폭(6반지후)</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>성서원</t>
+          <t>최주완</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -5764,27 +5829,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>무리</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>안여진</t>
+          <t>김가온</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5799,12 +5860,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -5820,25 +5881,25 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>21</v>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>최예성</t>
+          <t>김아연</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -5848,12 +5909,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -5869,20 +5930,20 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>김시현</t>
+          <t>임민수</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5897,18 +5958,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -5918,20 +5977,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>오승우</t>
+          <t>황승후</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5941,17 +6000,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -5961,13 +6020,13 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5976,11 +6035,11 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>김소영</t>
+          <t>황지우</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5990,17 +6049,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -6008,12 +6067,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>뺀들뺀들(노력중)</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>1</t>
@@ -6022,14 +6083,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>최진혁</t>
+          <t>송주안</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -6039,17 +6100,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6065,7 +6126,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6074,11 +6135,11 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>김리원</t>
+          <t>정하은</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -6088,17 +6149,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6120,34 +6181,34 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>황승후</t>
+          <t>한율아</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -6157,26 +6218,26 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>박수진</t>
+          <t>이연주</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6191,7 +6252,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -6206,26 +6267,30 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>교우관계 어려움</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>김시율</t>
+          <t>김지온</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -6240,12 +6305,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -6258,14 +6323,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>학폭</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6274,11 +6335,11 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>김연우</t>
+          <t>박지완</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -6288,17 +6349,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -6311,11 +6372,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>특수</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>2</t>
@@ -6324,34 +6381,34 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>조유빈</t>
+          <t>김종율</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -6367,25 +6424,25 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>김찬우</t>
+          <t>김서후</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -6395,12 +6452,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -6416,40 +6473,40 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>송민석</t>
+          <t>박현지</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -6462,47 +6519,43 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>공격적</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>김민서</t>
+          <t>신지오</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -6517,25 +6570,25 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>무리</t>
+          <t>전학미정</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>이한율</t>
+          <t>한리준</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -6555,7 +6608,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -6571,20 +6624,20 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>김지온</t>
+          <t>김나영</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -6599,7 +6652,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -6620,20 +6673,20 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>최서린</t>
+          <t>최루진</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -6643,17 +6696,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -6666,27 +6719,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>화려한 이력(노력중)</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>최윤슬</t>
+          <t>안채희</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6696,7 +6745,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -6706,7 +6755,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -6716,50 +6765,46 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>한부모</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B24" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>최희서</t>
+          <t>장효준</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -6772,10 +6817,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>생활지도 어려움</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6784,11 +6833,11 @@
         <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>박현지</t>
+          <t>김지후</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -6803,12 +6852,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -6821,7 +6870,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>학폭(피해)</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>4</t>
@@ -6839,7 +6892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6906,14 +6959,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>이서준</t>
+          <t>최진혁</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6923,17 +6976,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6949,20 +7002,20 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>권보현</t>
+          <t>정우준</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6977,12 +7030,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6998,20 +7051,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>안산오</t>
+          <t>김도희</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -7021,17 +7074,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -7047,20 +7100,20 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>이준우</t>
+          <t>김하준</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -7070,12 +7123,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -7096,20 +7149,20 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>박도현</t>
+          <t>모수헌</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -7119,17 +7172,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -7145,7 +7198,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7154,11 +7207,11 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>황은혁</t>
+          <t>안준호</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -7168,17 +7221,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -7200,14 +7253,14 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>8</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>서은기</t>
+          <t>서현승</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -7217,17 +7270,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7240,14 +7293,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>공감능력부족</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -7302,14 +7351,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>고병찬</t>
+          <t>황은혁</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -7319,17 +7368,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7345,7 +7394,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7354,11 +7403,11 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>송주안</t>
+          <t>김시현</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -7368,12 +7417,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7400,24 +7449,24 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="B12" t="n">
-        <v>13</v>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>유채은</t>
+          <t>고병찬</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -7427,7 +7476,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7443,7 +7492,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -7452,26 +7501,26 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>김채윤</t>
+          <t>이현덕</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7498,34 +7547,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>이시현</t>
+          <t>허윤재</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7535,26 +7584,26 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>임시은</t>
+          <t>박예림</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -7569,12 +7618,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7590,56 +7639,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>서현승</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7736,22 +7736,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -7760,7 +7760,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
@@ -7769,7 +7769,7 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7779,37 +7779,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -7831,31 +7831,31 @@
         <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7865,37 +7865,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>6</v>
       </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>5</v>
       </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
@@ -7917,13 +7917,13 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
         <v>7</v>
@@ -7932,16 +7932,16 @@
         <v>6</v>
       </c>
       <c r="J6" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" t="n">
         <v>8</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
         <v>4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -7951,40 +7951,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>258</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
         <v>4</v>
       </c>
-      <c r="E7" t="n">
-        <v>288</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Class_Assignment_Results.xlsx
+++ b/Class_Assignment_Results.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,14 +498,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>배슬민</t>
+          <t>강지연</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -515,22 +515,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -538,10 +538,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>매우산만함</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -550,11 +554,11 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>송지민</t>
+          <t>배슬민</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -574,7 +578,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -596,19 +600,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>김단하</t>
+          <t>황승후</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -623,7 +627,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -631,46 +635,48 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>손윤우</t>
+          <t>김민서</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -686,20 +692,20 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>최윤슬</t>
+          <t>민예린</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -709,17 +715,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -729,30 +735,26 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>한부모</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>이세빈</t>
+          <t>허윤재</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -762,17 +764,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -788,20 +790,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>안윤주</t>
+          <t>이연주</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -811,17 +813,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -831,26 +833,30 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>교우관계 어려움</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>후세인</t>
+          <t>전솔빈</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -860,70 +866,66 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>후세인</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>이준우</t>
+          <t>안희란</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -939,30 +941,30 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>김시율</t>
+          <t>후세인</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -972,40 +974,40 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>학폭</t>
+          <t>후세인</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>최세희</t>
+          <t>김채윤</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1015,12 +1017,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1041,20 +1043,20 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>한수아</t>
+          <t>정지아</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1064,17 +1066,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1087,28 +1089,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>김채은</t>
+          <t>임시온</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1118,7 +1124,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1139,7 +1145,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1148,11 +1154,11 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>박소연</t>
+          <t>조유라</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1162,12 +1168,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1182,10 +1188,15 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>학교폭력 4-1 최서린 분반
+정서적 예민함 있음</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>2</t>
@@ -1194,34 +1205,34 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>한다원</t>
+          <t>안채희</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1237,7 +1248,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1246,16 +1257,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>이한빈</t>
+          <t>이효린</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1270,7 +1281,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1283,11 +1294,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>과민성대장중후군?</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>6</t>
@@ -1296,14 +1303,14 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>이은혁</t>
+          <t>최연후</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1313,19 +1320,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>X</t>
@@ -1336,33 +1343,37 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>함구증</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>이선우</t>
+          <t>김주원</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1372,7 +1383,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1388,20 +1399,20 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>최지유</t>
+          <t>김태희</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1421,7 +1432,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1437,20 +1448,20 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>이율희</t>
+          <t>김지후</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1460,7 +1471,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1470,7 +1481,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1483,38 +1494,42 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>학폭(피해)</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>최예성</t>
+          <t>김나영</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1535,20 +1550,20 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>김하예</t>
+          <t>김소영</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1558,7 +1573,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1568,7 +1583,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1584,20 +1599,20 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>민예린</t>
+          <t>김가온</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1607,7 +1622,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1617,7 +1632,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1632,55 +1647,6 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" t="n">
-        <v>5</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>김초하</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1764,29 +1730,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>임지은</t>
+          <t>김도형</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1806,25 +1772,25 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>생활지도 어려움</t>
+          <t>학폭(6반지후)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>강지연</t>
+          <t>양다해</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1834,22 +1800,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1857,47 +1823,43 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>매우산만함</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>임지윤</t>
+          <t>안준혁</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1913,35 +1875,35 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>송성민</t>
+          <t>안윤주</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1962,7 +1924,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1971,31 +1933,31 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>박수진</t>
+          <t>송주안</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2020,31 +1982,31 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>고부경</t>
+          <t>구본서</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2057,11 +2019,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>말 많음(노력중)</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>1</t>
@@ -2073,31 +2031,31 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>김연우</t>
+          <t>최희서</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2110,11 +2068,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>특수</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>2</t>
@@ -2123,19 +2077,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>한수정</t>
+          <t>이윤후</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2145,7 +2099,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2166,7 +2120,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2175,33 +2129,33 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>박시우</t>
+          <t>이한빈</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>X</t>
@@ -2209,12 +2163,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>잦은 결석</t>
+          <t>과민성대장중후군?</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2228,16 +2182,16 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>김태웅</t>
+          <t>김리원</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2247,7 +2201,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2274,29 +2228,29 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>신아윤</t>
+          <t>이현덕</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2317,25 +2271,25 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>최연후</t>
+          <t>유채은</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2350,7 +2304,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2363,14 +2317,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>함구증</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2379,11 +2329,11 @@
         <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>조유라</t>
+          <t>박정효</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2393,17 +2343,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2413,15 +2363,10 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>학교폭력 4-1 최서린 분반
-정서적 예민함 있음</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>2</t>
@@ -2430,14 +2375,14 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>김도윤</t>
+          <t>김시현</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2452,12 +2397,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2473,7 +2418,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2482,16 +2427,16 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>이시현</t>
+          <t>이준우</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2501,7 +2446,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2516,7 +2461,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -2528,34 +2473,34 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>김지환</t>
+          <t>남하솔</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2571,7 +2516,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2580,11 +2525,11 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>김선아</t>
+          <t>이아인</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2594,27 +2539,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -2626,14 +2571,14 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>유소율</t>
+          <t>최지유</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2643,7 +2588,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2669,20 +2614,20 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>안산오</t>
+          <t>송민석</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2692,17 +2637,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2715,23 +2660,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>공격적</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>정지아</t>
+          <t>유지수</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2741,7 +2690,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2751,7 +2700,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2764,47 +2713,43 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>무리</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>김리원</t>
+          <t>장효준</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2817,43 +2762,47 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>생활지도 어려움</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>김찬우</t>
+          <t>박소연</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2869,7 +2818,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2878,11 +2827,11 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>김채윤</t>
+          <t>황지우</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2892,17 +2841,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2910,12 +2859,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>뺀들뺀들(노력중)</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>1</t>
@@ -2924,14 +2875,14 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>문지연</t>
+          <t>박수진</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2941,12 +2892,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2967,20 +2918,20 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>정아인</t>
+          <t>문지연</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2990,7 +2941,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3000,7 +2951,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3016,7 +2967,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3049,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>정연우</t>
+          <t>임지은</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3115,17 +3066,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3140,45 +3091,45 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>무리</t>
+          <t>생활지도 어려움</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>김수현</t>
+          <t>김민아</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>B</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3194,35 +3145,35 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
-        <v>15</v>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>안준혁</t>
+          <t>김하예</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -3243,7 +3194,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3252,37 +3203,35 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>구본서</t>
+          <t>임민수</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -3298,24 +3247,24 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>임시온</t>
+          <t>양예서</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3325,7 +3274,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3341,40 +3290,40 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>정서율</t>
+          <t>이은혁</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -3390,35 +3339,35 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>박도현</t>
+          <t>임시은</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3439,20 +3388,20 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>한유준</t>
+          <t>박서후</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3462,7 +3411,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3472,7 +3421,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -3488,20 +3437,20 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>유채은</t>
+          <t>구희율</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3511,17 +3460,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -3534,43 +3483,47 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>생활지도</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>임시은</t>
+          <t>김태웅</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3586,7 +3539,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3595,16 +3548,16 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>이윤후</t>
+          <t>박보은</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3614,7 +3567,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3632,7 +3585,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>4</t>
@@ -3641,14 +3598,14 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
         <v>5</v>
       </c>
-      <c r="B13" t="n">
-        <v>13</v>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>양예서</t>
+          <t>김초하</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3663,12 +3620,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -3684,20 +3641,20 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>이서준</t>
+          <t>안준호</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3707,12 +3664,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3733,20 +3690,20 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>안여진</t>
+          <t>최루진</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3756,17 +3713,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3782,25 +3739,25 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>오서연</t>
+          <t>송성민</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3831,7 +3788,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3840,31 +3797,31 @@
         <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>이아인</t>
+          <t>김우빈</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3886,29 +3843,29 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>오승우</t>
+          <t>정아인</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3929,20 +3886,20 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>김시아</t>
+          <t>이선우</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3952,17 +3909,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3978,25 +3935,25 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>구희율</t>
+          <t>정우준</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4006,12 +3963,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4024,27 +3981,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>생활지도</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>권보현</t>
+          <t>고부경</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4054,17 +4007,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4077,33 +4030,37 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>말 많음(노력중)</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>김주원</t>
+          <t>김단하</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4113,7 +4070,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4121,28 +4078,26 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="I22" t="n">
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>유지수</t>
+          <t>안여진</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4152,17 +4107,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4178,20 +4133,20 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>남하솔</t>
+          <t>정하은</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4201,17 +4156,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4227,20 +4182,20 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B25" t="n">
         <v>18</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>최서린</t>
+          <t>임지윤</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4250,17 +4205,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4273,27 +4228,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>화려한 이력(노력중)</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>노은수</t>
+          <t>김채은</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4308,12 +4259,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4329,7 +4280,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4460,14 +4411,14 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>김민아</t>
+          <t>송지민</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4477,12 +4428,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -4503,35 +4454,35 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>유승민</t>
+          <t>오서연</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -4549,14 +4500,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>집중력 저하</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4565,31 +4512,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>유예린</t>
+          <t>안산오</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -4614,16 +4561,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>김민서</t>
+          <t>한유준</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4633,12 +4580,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -4660,34 +4607,34 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>서은기</t>
+          <t>한수아</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -4700,47 +4647,43 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>공감능력부족</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>임승유</t>
+          <t>신아윤</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -4756,40 +4699,40 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>이하은</t>
+          <t>유승민</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -4802,23 +4745,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>집중력 저하</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>성서원</t>
+          <t>박예림</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4828,12 +4775,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -4851,27 +4798,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>무리</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>양규</t>
+          <t>한다원</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4881,7 +4824,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4891,7 +4834,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -4907,20 +4850,20 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>김소영</t>
+          <t>이시현</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4930,7 +4873,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4940,7 +4883,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -4950,26 +4893,26 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>박서후</t>
+          <t>이한율</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4979,17 +4922,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -5005,7 +4948,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5014,11 +4957,11 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>홍라임</t>
+          <t>정서율</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5028,7 +4971,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -5038,7 +4981,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -5063,41 +5006,41 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>김우빈</t>
+          <t>김선아</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -5109,24 +5052,24 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>안희란</t>
+          <t>최주완</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5136,7 +5079,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -5152,20 +5095,20 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>최희서</t>
+          <t>김시아</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -5175,12 +5118,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -5201,30 +5144,30 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>송민석</t>
+          <t>김시율</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -5234,7 +5177,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -5249,30 +5192,30 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>공격적</t>
+          <t>학폭</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>김민서</t>
+          <t>김찬우</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -5282,12 +5225,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -5300,14 +5243,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>무리</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5316,21 +5255,21 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>이한율</t>
+          <t>김서후</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5340,7 +5279,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -5362,14 +5301,14 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>조유빈</t>
+          <t>성서원</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5379,12 +5318,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -5402,23 +5341,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>박정효</t>
+          <t>홍라임</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5428,7 +5371,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5438,7 +5381,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -5454,20 +5397,20 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>이효린</t>
+          <t>한수정</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -5477,17 +5420,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -5503,20 +5446,20 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>박보은</t>
+          <t>유소율</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -5531,12 +5474,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5549,63 +5492,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>무리</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="n">
-        <v>10</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>김태희</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5687,34 +5577,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>양다해</t>
+          <t>김수현</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -5730,30 +5620,30 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>김도형</t>
+          <t>정연우</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5763,7 +5653,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -5778,35 +5668,35 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>학폭(6반지후)</t>
+          <t>무리</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>최주완</t>
+          <t>김아연</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5816,7 +5706,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -5832,7 +5722,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5841,31 +5731,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>김가온</t>
+          <t>손윤우</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -5887,14 +5777,14 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>김아연</t>
+          <t>최세희</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5904,17 +5794,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -5930,20 +5820,20 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>임민수</t>
+          <t>이세빈</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5953,7 +5843,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -5963,11 +5853,13 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -5977,40 +5869,40 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>황승후</t>
+          <t>최서린</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6020,36 +5912,40 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>화려한 이력(노력중)</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>황지우</t>
+          <t>박도현</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -6067,50 +5963,48 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>뺀들뺀들(노력중)</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>송주안</t>
+          <t>김민서</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6123,43 +6017,47 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>정하은</t>
+          <t>양규</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6175,7 +6073,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6184,11 +6082,11 @@
         <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>한율아</t>
+          <t>박시우</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -6198,17 +6096,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -6218,10 +6116,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>잦은 결석</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>6</t>
@@ -6233,16 +6135,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>이연주</t>
+          <t>모수헌</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -6252,12 +6154,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -6267,14 +6169,10 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>교우관계 어려움</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>2</t>
@@ -6283,14 +6181,14 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>김지온</t>
+          <t>조유빈</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -6300,12 +6198,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -6326,20 +6224,20 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>박지완</t>
+          <t>최예성</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -6349,12 +6247,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -6375,40 +6273,40 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>김종율</t>
+          <t>이율희</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -6424,20 +6322,20 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>김서후</t>
+          <t>최윤슬</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -6452,12 +6350,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -6467,46 +6365,50 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>한부모</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
         <v>11</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>박현지</t>
+          <t>김하준</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -6522,7 +6424,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6531,11 +6433,11 @@
         <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>신지오</t>
+          <t>임승유</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -6545,17 +6447,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -6568,11 +6470,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>전학미정</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>5</t>
@@ -6581,34 +6479,34 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>한리준</t>
+          <t>박현지</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -6624,25 +6522,25 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>김나영</t>
+          <t>김도희</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -6652,7 +6550,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -6673,20 +6571,20 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
         <v>5</v>
       </c>
-      <c r="B22" t="n">
-        <v>19</v>
-      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>최루진</t>
+          <t>노은수</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -6696,17 +6594,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -6722,20 +6620,20 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>안채희</t>
+          <t>김지온</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6745,17 +6643,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -6771,35 +6669,35 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>장효준</t>
+          <t>유예린</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -6817,67 +6715,108 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>생활지도 어려움</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
+        <v>14</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>이하은</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>6</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>김지후</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="B26" t="n">
+        <v>21</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>한율아</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>여</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>학폭(피해)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6892,7 +6831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7008,14 +6947,14 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>정우준</t>
+          <t>권보현</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7030,12 +6969,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -7051,20 +6990,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>김도희</t>
+          <t>신지오</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -7074,12 +7013,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -7097,23 +7036,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>전학미정</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>김하준</t>
+          <t>김연우</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -7123,17 +7066,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -7146,10 +7089,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>특수</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7158,11 +7105,11 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>모수헌</t>
+          <t>박지완</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -7172,17 +7119,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -7204,14 +7151,14 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>안준호</t>
+          <t>이서준</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -7221,12 +7168,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7247,20 +7194,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>서현승</t>
+          <t>김종율</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -7270,7 +7217,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -7280,7 +7227,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7296,20 +7243,20 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>전솔빈</t>
+          <t>황은혁</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -7319,17 +7266,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7345,20 +7292,20 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>황은혁</t>
+          <t>고병찬</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -7368,17 +7315,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7394,20 +7341,20 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>김시현</t>
+          <t>김지환</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -7417,17 +7364,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7443,20 +7390,20 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>고병찬</t>
+          <t>서은기</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -7471,12 +7418,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7489,23 +7436,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>공감능력부족</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>이현덕</t>
+          <t>한리준</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -7515,17 +7466,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7541,20 +7492,20 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>허윤재</t>
+          <t>김도윤</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -7569,12 +7520,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7590,25 +7541,25 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>박예림</t>
+          <t>오승우</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -7618,12 +7569,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7639,7 +7590,56 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>서현승</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -7736,40 +7736,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>516</v>
+        <v>426</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7782,37 +7782,37 @@
         <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
         <v>7</v>
       </c>
-      <c r="H3" t="n">
-        <v>12</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
       <c r="J3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" t="n">
         <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -7825,16 +7825,16 @@
         <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
@@ -7843,19 +7843,19 @@
         <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -7865,40 +7865,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
         <v>8</v>
       </c>
-      <c r="G5" t="n">
-        <v>9</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
+        <v>7</v>
+      </c>
+      <c r="L5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6</v>
-      </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7908,40 +7908,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
       </c>
       <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
         <v>7</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
         <v>6</v>
       </c>
-      <c r="J6" t="n">
-        <v>9</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -7951,37 +7951,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>296</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" t="n">
         <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>258</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>

--- a/Class_Assignment_Results.xlsx
+++ b/Class_Assignment_Results.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,19 +498,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>강지연</t>
+          <t>김수현</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -525,12 +525,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -538,14 +538,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>매우산만함</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -554,31 +550,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>배슬민</t>
+          <t>송윤우</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -600,19 +596,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>황승후</t>
+          <t>송지민</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -627,7 +623,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -637,13 +633,13 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -652,21 +648,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>김민서</t>
+          <t>정우준</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -698,14 +694,14 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>민예린</t>
+          <t>구희율</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -715,17 +711,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -738,23 +734,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>생활지도</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>허윤재</t>
+          <t>김지환</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -790,20 +790,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>이연주</t>
+          <t>정서율</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -818,14 +818,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>X</t>
@@ -833,40 +833,36 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>교우관계 어려움</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>전솔빈</t>
+          <t>이율희</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -876,7 +872,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -892,30 +888,30 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>안희란</t>
+          <t>황승후</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -925,7 +921,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -935,79 +931,75 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>후세인</t>
+          <t>오서연</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>후세인</t>
-        </is>
-      </c>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>김채윤</t>
+          <t>안여진</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1017,17 +1009,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1043,7 +1035,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1052,11 +1044,11 @@
         <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>정지아</t>
+          <t>김가온</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1066,17 +1058,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1089,11 +1081,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>무리</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>3</t>
@@ -1105,11 +1093,11 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>임시온</t>
+          <t>장효준</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1119,17 +1107,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1142,7 +1130,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>생활지도 어려움</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>6</t>
@@ -1151,283 +1143,283 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>이현덕</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>최서린</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>화려한 이력(노력중)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>유지수</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>김태웅</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>2</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B19" t="n">
         <v>20</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>조유라</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>여</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>학교폭력 4-1 최서린 분반
 정서적 예민함 있음</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>안채희</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>6</v>
-      </c>
-      <c r="B17" t="n">
-        <v>13</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>이효린</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>21</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>최연후</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>함구증</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>6</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>김주원</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>김태희</t>
+          <t>송주안</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1448,25 +1440,25 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>김지후</t>
+          <t>서은기</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1476,12 +1468,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1496,12 +1488,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>학폭(피해)</t>
+          <t>공감능력부족</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1510,11 +1502,11 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>김나영</t>
+          <t>이연주</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1529,7 +1521,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1544,10 +1536,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>교우관계 어려움</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>2</t>
@@ -1559,11 +1555,11 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>김소영</t>
+          <t>김채윤</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1578,12 +1574,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1608,31 +1604,31 @@
         <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>김가온</t>
+          <t>손윤우</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1649,6 +1645,157 @@
       <c r="K24" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>김시율</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>학폭</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>문지연</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>김채은</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1730,19 +1877,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>김도형</t>
+          <t>강지연</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1762,7 +1909,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1772,12 +1919,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>학폭(6반지후)</t>
+          <t>매우산만함</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1832,19 +1979,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>안준혁</t>
+          <t>최희서</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1854,7 +2001,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1875,25 +2022,25 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>안윤주</t>
+          <t>한다원</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1908,7 +2055,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1924,40 +2071,40 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>송주안</t>
+          <t>박현지</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1973,25 +2120,25 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>구본서</t>
+          <t>박도현</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2001,12 +2148,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2022,20 +2169,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>최희서</t>
+          <t>안윤주</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2045,17 +2192,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2071,40 +2218,40 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>이윤후</t>
+          <t>김태희</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2120,20 +2267,20 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>이한빈</t>
+          <t>최주완</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2148,12 +2295,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2166,37 +2313,33 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>과민성대장중후군?</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>김리원</t>
+          <t>전솔빈</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2206,7 +2349,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2222,30 +2365,30 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>이현덕</t>
+          <t>김지온</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2271,40 +2414,40 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="B13" t="n">
-        <v>13</v>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>유채은</t>
+          <t>권보현</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2320,20 +2463,20 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>박정효</t>
+          <t>김리원</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2343,17 +2486,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2369,20 +2512,20 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>김시현</t>
+          <t>김주원</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2392,17 +2535,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2418,40 +2561,40 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>이준우</t>
+          <t>유채은</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2467,7 +2610,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2476,31 +2619,31 @@
         <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>남하솔</t>
+          <t>한리준</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2522,14 +2665,14 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>이아인</t>
+          <t>민예린</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2549,7 +2692,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2565,25 +2708,25 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>최지유</t>
+          <t>한유준</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2593,7 +2736,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2614,25 +2757,25 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>송민석</t>
+          <t>김아연</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2642,7 +2785,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2660,47 +2803,43 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>공격적</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>유지수</t>
+          <t>신지오</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2713,45 +2852,49 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>전학미정</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>장효준</t>
+          <t>이하은</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>X</t>
@@ -2762,27 +2905,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>생활지도 어려움</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>박소연</t>
+          <t>김시아</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2792,12 +2931,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2818,20 +2957,20 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>황지우</t>
+          <t>김하예</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2841,12 +2980,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2859,30 +2998,28 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>뺀들뺀들(노력중)</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>박수진</t>
+          <t>박보은</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2892,12 +3029,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2915,23 +3052,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>문지연</t>
+          <t>남하솔</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2946,7 +3087,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2967,7 +3108,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2982,7 +3123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3049,14 +3190,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>임지은</t>
+          <t>배슬민</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3066,17 +3207,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3089,37 +3230,33 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>생활지도 어려움</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>김민아</t>
+          <t>안준혁</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3129,7 +3266,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3145,20 +3282,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>김하예</t>
+          <t>김초하</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3168,17 +3305,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3194,7 +3331,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3203,11 +3340,11 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>임민수</t>
+          <t>고부경</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3217,28 +3354,34 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>말 많음(노력중)</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>1</t>
@@ -3250,16 +3393,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>양예서</t>
+          <t>서현승</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3274,7 +3417,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3296,34 +3439,34 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="B7" t="n">
-        <v>23</v>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>이은혁</t>
+          <t>김나영</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -3339,20 +3482,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>임시은</t>
+          <t>신아윤</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3362,17 +3505,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -3388,20 +3531,20 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>박서후</t>
+          <t>김도윤</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3411,17 +3554,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -3437,20 +3580,20 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>구희율</t>
+          <t>양예서</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3460,19 +3603,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>X</t>
@@ -3483,27 +3626,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>생활지도</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>김태웅</t>
+          <t>최진혁</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3513,17 +3652,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3539,20 +3678,20 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>박보은</t>
+          <t>김단하</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3567,12 +3706,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -3580,58 +3719,50 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>무리</t>
-        </is>
-      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>김초하</t>
+          <t>임민수</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -3641,30 +3772,30 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>안준호</t>
+          <t>박예림</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3690,25 +3821,25 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>최루진</t>
+          <t>최예성</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3723,7 +3854,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3739,40 +3870,40 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>송성민</t>
+          <t>성서원</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3785,23 +3916,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>김우빈</t>
+          <t>이서준</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3811,7 +3946,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3821,7 +3956,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3837,20 +3972,20 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>정아인</t>
+          <t>김민서</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3860,17 +3995,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3883,43 +4018,47 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>이선우</t>
+          <t>황은혁</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3935,25 +4074,25 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>정우준</t>
+          <t>유예린</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3963,7 +4102,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3984,40 +4123,40 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>고부경</t>
+          <t>박정효</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4030,14 +4169,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>말 많음(노력중)</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4046,11 +4181,11 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>김단하</t>
+          <t>황지우</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4065,12 +4200,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4081,7 +4216,11 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>뺀들뺀들(노력중)</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>1</t>
@@ -4090,14 +4229,14 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>안여진</t>
+          <t>김선아</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4107,7 +4246,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4117,36 +4256,36 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>정하은</t>
+          <t>이시현</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4156,17 +4295,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4176,13 +4315,13 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4191,11 +4330,11 @@
         <v>5</v>
       </c>
       <c r="B25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>임지윤</t>
+          <t>최루진</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4205,17 +4344,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4232,55 +4371,6 @@
       <c r="K25" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>4</v>
-      </c>
-      <c r="B26" t="n">
-        <v>7</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>김채은</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
@@ -4290,6 +4380,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>반</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>번호</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>학생 이름</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>성적 등급 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>생활지도 어려움 등급 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>체력 (A/B/C/D)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>다문화 여부 (O/X)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>복지대상 여부 (O/X)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>전 학년 반</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>정연우</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>김민아</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>김서후</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>후세인</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>후세인</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>이아인</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>안준호</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>이세빈</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>안채희</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>김민서</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>김시현</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>21</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>정지아</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>무리</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>이한율</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>최지유</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>23</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>홍라임</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>고병찬</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>구본서</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>21</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>최연후</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>함구증</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>이윤후</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>김소영</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>임시은</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>최윤슬</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>한부모</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>한율아</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>노은수</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>박수진</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>여</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4362,14 +5724,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>송윤우</t>
+          <t>김도형</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4379,17 +5741,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -4402,23 +5764,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>학폭(6반지후)</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>송지민</t>
+          <t>임지은</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4428,17 +5794,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -4451,38 +5817,42 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>생활지도 어려움</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>오서연</t>
+          <t>오승우</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -4503,40 +5873,40 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>안산오</t>
+          <t>정하은</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -4552,25 +5922,25 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>한유준</t>
+          <t>조유빈</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4580,12 +5950,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -4601,25 +5971,25 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>한수아</t>
+          <t>임승유</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4629,12 +5999,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -4650,20 +6020,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>신아윤</t>
+          <t>유소율</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4673,17 +6043,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -4699,30 +6069,30 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>유승민</t>
+          <t>정아인</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4745,47 +6115,43 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>집중력 저하</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>박예림</t>
+          <t>송민석</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -4798,10 +6164,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>공격적</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4810,11 +6180,11 @@
         <v>6</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>한다원</t>
+          <t>이한빈</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4824,12 +6194,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -4847,7 +6217,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>과민성대장중후군?</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>6</t>
@@ -4856,14 +6230,14 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>이시현</t>
+          <t>안희란</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4873,17 +6247,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -4893,26 +6267,26 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>이한율</t>
+          <t>모수헌</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4927,12 +6301,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4948,20 +6322,20 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>정서율</t>
+          <t>임지윤</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4971,7 +6345,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4981,7 +6355,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4997,30 +6371,30 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>김선아</t>
+          <t>박지완</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -5030,56 +6404,56 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>최주완</t>
+          <t>한수아</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -5095,25 +6469,25 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>김시아</t>
+          <t>유승민</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>여</t>
+          <t>남</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -5123,12 +6497,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -5141,10 +6515,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>집중력 저하</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5153,11 +6531,11 @@
         <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>김시율</t>
+          <t>이선우</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5172,12 +6550,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -5190,11 +6568,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>학폭</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>3</t>
@@ -5203,19 +6577,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>김찬우</t>
+          <t>한수정</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>여</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -5225,7 +6599,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -5246,20 +6620,20 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>김서후</t>
+          <t>김지후</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5269,17 +6643,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -5292,10 +6666,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>학폭(피해)</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5304,11 +6682,11 @@
         <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>성서원</t>
+          <t>이효린</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5318,17 +6696,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -5341,11 +6719,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>무리</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>6</t>
@@ -5354,14 +6728,14 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>홍라임</t>
+          <t>박시우</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5371,17 +6745,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -5391,26 +6765,30 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>잦은 결석</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>한수정</t>
+          <t>박소연</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -5420,17 +6798,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -5446,20 +6824,20 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>유소율</t>
+          <t>최세희</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -5469,17 +6847,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5495,1328 +6873,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>반</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>번호</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>학생 이름</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>성별</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>성적 등급 (A/B/C/D)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>생활지도 어려움 등급 (A/B/C/D)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>체력 (A/B/C/D)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>다문화 여부 (O/X)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>복지대상 여부 (O/X)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>비고</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>전 학년 반</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>김수현</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>정연우</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>무리</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>김아연</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>손윤우</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>20</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>최세희</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
           <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>14</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>이세빈</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>18</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>최서린</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>화려한 이력(노력중)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>박도현</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>김민서</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>무리</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>양규</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>박시우</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>잦은 결석</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>모수헌</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>22</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>조유빈</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>21</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>최예성</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>16</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>이율희</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>6</v>
-      </c>
-      <c r="B17" t="n">
-        <v>18</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>최윤슬</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>한부모</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="n">
-        <v>11</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>김하준</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>임승유</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>11</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>박현지</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>김도희</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>노은수</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>김지온</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" t="n">
-        <v>17</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>유예린</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="n">
-        <v>14</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>이하은</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>6</v>
-      </c>
-      <c r="B26" t="n">
-        <v>21</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>한율아</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6898,14 +6955,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>최진혁</t>
+          <t>김도희</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6915,17 +6972,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6941,20 +6998,20 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>권보현</t>
+          <t>김우빈</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6964,7 +7021,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -6974,7 +7031,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6990,20 +7047,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>신지오</t>
+          <t>이은혁</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -7013,17 +7070,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -7036,14 +7093,10 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>전학미정</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7052,11 +7105,11 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>김연우</t>
+          <t>양규</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -7066,17 +7119,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -7089,11 +7142,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>특수</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>2</t>
@@ -7105,11 +7154,11 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>박지완</t>
+          <t>김연우</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -7119,17 +7168,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -7142,7 +7191,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>특수</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>2</t>
@@ -7151,14 +7204,14 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>이서준</t>
+          <t>이준우</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -7168,7 +7221,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -7178,7 +7231,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -7194,20 +7247,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>김종율</t>
+          <t>허윤재</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -7222,12 +7275,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7243,7 +7296,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -7252,11 +7305,11 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>황은혁</t>
+          <t>김찬우</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -7271,12 +7324,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7298,14 +7351,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>고병찬</t>
+          <t>안산오</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -7325,7 +7378,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7341,7 +7394,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7350,11 +7403,11 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>김지환</t>
+          <t>김하준</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -7374,7 +7427,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7396,14 +7449,14 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>서은기</t>
+          <t>김종율</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -7413,19 +7466,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>X</t>
@@ -7436,27 +7489,23 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>공감능력부족</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>한리준</t>
+          <t>임시온</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -7466,7 +7515,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -7476,7 +7525,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7492,20 +7541,20 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>김도윤</t>
+          <t>박서후</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -7515,17 +7564,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7541,20 +7590,20 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>12</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>오승우</t>
+          <t>송성민</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -7564,12 +7613,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7590,56 +7639,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>서현승</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7736,40 +7736,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>592</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E2" t="n">
-        <v>426</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" t="n">
         <v>8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7782,16 +7782,16 @@
         <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
         <v>8</v>
@@ -7800,19 +7800,19 @@
         <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -7822,40 +7822,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
         <v>10</v>
       </c>
       <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
         <v>4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -7865,40 +7865,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7</v>
-      </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
         <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7908,40 +7908,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
         <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>561</v>
+        <v>496</v>
       </c>
       <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
         <v>6</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7</v>
-      </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -7951,40 +7951,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
